--- a/IPv6/Kisvállalat létszám - IPv6.xlsx
+++ b/IPv6/Kisvállalat létszám - IPv6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\School\11.o\Hálózat\projekt\fluffy-system\IPv6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA89B91-F16B-429A-9D36-2645F9E2B0F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ECD2D1-5BDE-4EE9-A30D-EF15BE2BBFA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4005" windowHeight="10470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alap" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="173">
   <si>
     <t>I.em</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>Wifi - Router</t>
+  </si>
+  <si>
+    <t>DHCP Server</t>
   </si>
 </sst>
 </file>
@@ -1373,6 +1376,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1385,6 +1392,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1394,80 +1482,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1511,73 +1581,6 @@
     <xf numFmtId="0" fontId="4" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1965,9 +1968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CB4148-414F-422C-94F5-AFDA695DCD79}">
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,14 +2009,14 @@
       <c r="B2" s="69">
         <v>0</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="112" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="70" t="s">
         <v>30</v>
       </c>
@@ -2025,12 +2028,12 @@
       <c r="B3" s="69">
         <v>1</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
       <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2040,12 +2043,12 @@
       <c r="B4" s="69">
         <v>2</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
       <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2055,12 +2058,12 @@
       <c r="B5" s="69">
         <v>3</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
       <c r="I5" s="70"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2070,12 +2073,12 @@
       <c r="B6" s="69">
         <v>4</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="70"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2085,12 +2088,12 @@
       <c r="B7" s="69">
         <v>5</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="70"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2100,12 +2103,12 @@
       <c r="B8" s="69">
         <v>6</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2115,12 +2118,12 @@
       <c r="B9" s="69">
         <v>7</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="70"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2130,12 +2133,12 @@
       <c r="B10" s="69">
         <v>8</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="70"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2145,12 +2148,12 @@
       <c r="B11" s="69">
         <v>9</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2160,12 +2163,12 @@
       <c r="B12" s="69">
         <v>10</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
       <c r="I12" s="70"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2175,12 +2178,12 @@
       <c r="B13" s="69">
         <v>11</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="70"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2190,12 +2193,12 @@
       <c r="B14" s="69">
         <v>12</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2205,12 +2208,12 @@
       <c r="B15" s="69">
         <v>13</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
       <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2220,12 +2223,12 @@
       <c r="B16" s="69">
         <v>14</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
       <c r="I16" s="70"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2235,12 +2238,12 @@
       <c r="B17" s="69">
         <v>15</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
       <c r="I17" s="70" t="s">
         <v>31</v>
       </c>
@@ -2252,14 +2255,14 @@
       <c r="B18" s="71">
         <v>16</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="110" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="72" t="s">
         <v>30</v>
       </c>
@@ -2271,12 +2274,12 @@
       <c r="B19" s="71">
         <v>17</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
       <c r="I19" s="72"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2286,12 +2289,12 @@
       <c r="B20" s="71">
         <v>18</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
       <c r="I20" s="72"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2301,12 +2304,12 @@
       <c r="B21" s="71">
         <v>19</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
       <c r="I21" s="72"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2316,12 +2319,12 @@
       <c r="B22" s="71">
         <v>20</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
       <c r="I22" s="72"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2331,12 +2334,12 @@
       <c r="B23" s="71">
         <v>21</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
       <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2346,12 +2349,12 @@
       <c r="B24" s="71">
         <v>22</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
       <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2361,12 +2364,12 @@
       <c r="B25" s="71">
         <v>23</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
       <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2376,12 +2379,12 @@
       <c r="B26" s="71">
         <v>24</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
       <c r="I26" s="72"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2391,12 +2394,12 @@
       <c r="B27" s="71">
         <v>25</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
       <c r="I27" s="72"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2406,12 +2409,12 @@
       <c r="B28" s="71">
         <v>26</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
       <c r="I28" s="72"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2421,12 +2424,12 @@
       <c r="B29" s="71">
         <v>27</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="72"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2436,12 +2439,12 @@
       <c r="B30" s="71">
         <v>28</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
       <c r="I30" s="72"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2451,12 +2454,12 @@
       <c r="B31" s="71">
         <v>29</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
       <c r="I31" s="72"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2466,12 +2469,12 @@
       <c r="B32" s="71">
         <v>30</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
       <c r="I32" s="72"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2481,12 +2484,12 @@
       <c r="B33" s="71">
         <v>31</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
       <c r="I33" s="72" t="s">
         <v>31</v>
       </c>
@@ -2498,14 +2501,14 @@
       <c r="B34" s="73">
         <v>32</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="111" t="s">
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
       <c r="I34" s="74" t="s">
         <v>30</v>
       </c>
@@ -2517,12 +2520,12 @@
       <c r="B35" s="73">
         <v>33</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
       <c r="I35" s="74"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2532,12 +2535,12 @@
       <c r="B36" s="73">
         <v>34</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
       <c r="I36" s="74"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2547,12 +2550,12 @@
       <c r="B37" s="73">
         <v>35</v>
       </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
       <c r="I37" s="74"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,12 +2565,12 @@
       <c r="B38" s="73">
         <v>36</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
       <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2577,12 +2580,12 @@
       <c r="B39" s="73">
         <v>37</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
       <c r="I39" s="74"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2592,12 +2595,12 @@
       <c r="B40" s="73">
         <v>38</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
       <c r="I40" s="74"/>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2607,12 +2610,12 @@
       <c r="B41" s="73">
         <v>39</v>
       </c>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
       <c r="I41" s="74"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2622,12 +2625,12 @@
       <c r="B42" s="73">
         <v>40</v>
       </c>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
       <c r="I42" s="74"/>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2637,12 +2640,12 @@
       <c r="B43" s="73">
         <v>41</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
       <c r="I43" s="74"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2652,12 +2655,12 @@
       <c r="B44" s="73">
         <v>42</v>
       </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
       <c r="I44" s="74"/>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2667,12 +2670,12 @@
       <c r="B45" s="73">
         <v>43</v>
       </c>
-      <c r="C45" s="84"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
       <c r="I45" s="74"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2682,12 +2685,12 @@
       <c r="B46" s="73">
         <v>44</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
       <c r="I46" s="74"/>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2697,12 +2700,12 @@
       <c r="B47" s="73">
         <v>45</v>
       </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
       <c r="I47" s="74"/>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2712,12 +2715,12 @@
       <c r="B48" s="73">
         <v>46</v>
       </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
       <c r="I48" s="74"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2727,12 +2730,12 @@
       <c r="B49" s="73">
         <v>47</v>
       </c>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
       <c r="I49" s="74" t="s">
         <v>31</v>
       </c>
@@ -2744,14 +2747,14 @@
       <c r="B50" s="75">
         <v>48</v>
       </c>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="103" t="s">
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
       <c r="I50" s="76" t="s">
         <v>30</v>
       </c>
@@ -2763,12 +2766,12 @@
       <c r="B51" s="75">
         <v>49</v>
       </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
       <c r="I51" s="76"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2778,12 +2781,12 @@
       <c r="B52" s="75">
         <v>50</v>
       </c>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
       <c r="I52" s="76"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2793,12 +2796,12 @@
       <c r="B53" s="75">
         <v>51</v>
       </c>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
       <c r="I53" s="76"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2808,12 +2811,12 @@
       <c r="B54" s="75">
         <v>52</v>
       </c>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
       <c r="I54" s="76"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2823,12 +2826,12 @@
       <c r="B55" s="75">
         <v>53</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
       <c r="I55" s="76"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2838,12 +2841,12 @@
       <c r="B56" s="75">
         <v>54</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
       <c r="I56" s="76"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2853,12 +2856,12 @@
       <c r="B57" s="75">
         <v>55</v>
       </c>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
       <c r="I57" s="76"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2868,12 +2871,12 @@
       <c r="B58" s="75">
         <v>56</v>
       </c>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
       <c r="I58" s="76"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2883,12 +2886,12 @@
       <c r="B59" s="75">
         <v>57</v>
       </c>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
       <c r="I59" s="76"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2898,12 +2901,12 @@
       <c r="B60" s="75">
         <v>58</v>
       </c>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
       <c r="I60" s="76"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2913,12 +2916,12 @@
       <c r="B61" s="75">
         <v>59</v>
       </c>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="104"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
       <c r="I61" s="76"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2928,12 +2931,12 @@
       <c r="B62" s="75">
         <v>60</v>
       </c>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="104"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
       <c r="I62" s="76"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2943,12 +2946,12 @@
       <c r="B63" s="75">
         <v>61</v>
       </c>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="104"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
       <c r="I63" s="76"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2958,12 +2961,12 @@
       <c r="B64" s="75">
         <v>62</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="104"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="81"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
       <c r="I64" s="76"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2973,12 +2976,12 @@
       <c r="B65" s="75">
         <v>63</v>
       </c>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="81"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
       <c r="I65" s="76" t="s">
         <v>31</v>
       </c>
@@ -2990,14 +2993,14 @@
       <c r="B66" s="77">
         <v>64</v>
       </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="106" t="s">
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="F66" s="81"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="81"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
       <c r="I66" s="78" t="s">
         <v>30</v>
       </c>
@@ -3009,12 +3012,12 @@
       <c r="B67" s="77">
         <v>65</v>
       </c>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="81"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
       <c r="I67" s="78"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3024,12 +3027,12 @@
       <c r="B68" s="77">
         <v>66</v>
       </c>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
       <c r="I68" s="78"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3039,12 +3042,12 @@
       <c r="B69" s="77">
         <v>67</v>
       </c>
-      <c r="C69" s="84"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
       <c r="I69" s="78"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3054,12 +3057,12 @@
       <c r="B70" s="77">
         <v>68</v>
       </c>
-      <c r="C70" s="82"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="81"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
       <c r="I70" s="78"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3069,12 +3072,12 @@
       <c r="B71" s="77">
         <v>69</v>
       </c>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="106"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
       <c r="I71" s="78"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3084,12 +3087,12 @@
       <c r="B72" s="77">
         <v>70</v>
       </c>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="81"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
       <c r="I72" s="78"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3099,12 +3102,12 @@
       <c r="B73" s="77">
         <v>71</v>
       </c>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="106"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="81"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
       <c r="I73" s="78"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3114,12 +3117,12 @@
       <c r="B74" s="77">
         <v>72</v>
       </c>
-      <c r="C74" s="82"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="106"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="81"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="83"/>
       <c r="I74" s="78"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3129,12 +3132,12 @@
       <c r="B75" s="77">
         <v>73</v>
       </c>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="106"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="81"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
       <c r="I75" s="78"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3144,12 +3147,12 @@
       <c r="B76" s="77">
         <v>74</v>
       </c>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="106"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="81"/>
-      <c r="H76" s="81"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
       <c r="I76" s="78"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3159,12 +3162,12 @@
       <c r="B77" s="77">
         <v>75</v>
       </c>
-      <c r="C77" s="84"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="81"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
       <c r="I77" s="78"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3174,12 +3177,12 @@
       <c r="B78" s="77">
         <v>76</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="106"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="81"/>
-      <c r="H78" s="81"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="98"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="83"/>
       <c r="I78" s="78"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3189,12 +3192,12 @@
       <c r="B79" s="77">
         <v>77</v>
       </c>
-      <c r="C79" s="83"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="106"/>
-      <c r="F79" s="81"/>
-      <c r="G79" s="81"/>
-      <c r="H79" s="81"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="98"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
       <c r="I79" s="78"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3204,12 +3207,12 @@
       <c r="B80" s="77">
         <v>78</v>
       </c>
-      <c r="C80" s="83"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="106"/>
-      <c r="F80" s="81"/>
-      <c r="G80" s="81"/>
-      <c r="H80" s="81"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="98"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
       <c r="I80" s="78"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3219,12 +3222,12 @@
       <c r="B81" s="77">
         <v>79</v>
       </c>
-      <c r="C81" s="84"/>
-      <c r="D81" s="84"/>
-      <c r="E81" s="106"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="81"/>
-      <c r="H81" s="81"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
       <c r="I81" s="78" t="s">
         <v>31</v>
       </c>
@@ -3236,14 +3239,14 @@
       <c r="B82" s="79">
         <v>80</v>
       </c>
-      <c r="C82" s="81"/>
-      <c r="D82" s="107" t="s">
+      <c r="C82" s="83"/>
+      <c r="D82" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="82"/>
-      <c r="F82" s="81"/>
-      <c r="G82" s="81"/>
-      <c r="H82" s="81"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="83"/>
       <c r="I82" s="80" t="s">
         <v>30</v>
       </c>
@@ -3255,12 +3258,12 @@
       <c r="B83" s="79">
         <v>81</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="108"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="81"/>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="100"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="83"/>
+      <c r="H83" s="83"/>
       <c r="I83" s="80"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3270,12 +3273,12 @@
       <c r="B84" s="79">
         <v>82</v>
       </c>
-      <c r="C84" s="81"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="81"/>
-      <c r="G84" s="81"/>
-      <c r="H84" s="81"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="100"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
       <c r="I84" s="80"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3285,12 +3288,12 @@
       <c r="B85" s="79">
         <v>83</v>
       </c>
-      <c r="C85" s="81"/>
-      <c r="D85" s="108"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="81"/>
-      <c r="G85" s="81"/>
-      <c r="H85" s="81"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="100"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="83"/>
+      <c r="H85" s="83"/>
       <c r="I85" s="80"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3300,12 +3303,12 @@
       <c r="B86" s="79">
         <v>84</v>
       </c>
-      <c r="C86" s="81"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
-      <c r="H86" s="81"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="100"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="83"/>
+      <c r="H86" s="83"/>
       <c r="I86" s="80"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3315,12 +3318,12 @@
       <c r="B87" s="79">
         <v>85</v>
       </c>
-      <c r="C87" s="81"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="H87" s="81"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="100"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="83"/>
+      <c r="G87" s="83"/>
+      <c r="H87" s="83"/>
       <c r="I87" s="80"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3330,12 +3333,12 @@
       <c r="B88" s="79">
         <v>86</v>
       </c>
-      <c r="C88" s="81"/>
-      <c r="D88" s="108"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="81"/>
-      <c r="G88" s="81"/>
-      <c r="H88" s="81"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="100"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
       <c r="I88" s="80"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3345,144 +3348,146 @@
       <c r="B89" s="79">
         <v>87</v>
       </c>
-      <c r="C89" s="81"/>
-      <c r="D89" s="109"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="81"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
       <c r="I89" s="80" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="149">
+      <c r="A90" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="81">
         <v>88</v>
       </c>
-      <c r="C90" s="81"/>
-      <c r="D90" s="146" t="s">
+      <c r="C90" s="83"/>
+      <c r="D90" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="E90" s="83"/>
-      <c r="F90" s="81"/>
-      <c r="G90" s="81"/>
-      <c r="H90" s="81"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="83"/>
       <c r="I90" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91" s="149">
+      <c r="A91" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="81">
         <v>89</v>
       </c>
-      <c r="C91" s="81"/>
-      <c r="D91" s="147"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="81"/>
-      <c r="G91" s="81"/>
-      <c r="H91" s="81"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="103"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="83"/>
       <c r="I91" s="35" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="149">
+      <c r="A92" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="81">
         <v>90</v>
       </c>
-      <c r="C92" s="81"/>
-      <c r="D92" s="147"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="81"/>
-      <c r="G92" s="81"/>
-      <c r="H92" s="81"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="83"/>
+      <c r="H92" s="83"/>
       <c r="I92" s="35" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" s="149">
+      <c r="A93" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="81">
         <v>91</v>
       </c>
-      <c r="C93" s="81"/>
-      <c r="D93" s="147"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="81"/>
-      <c r="G93" s="81"/>
-      <c r="H93" s="81"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="103"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="83"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="83"/>
       <c r="I93" s="35" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="B94" s="149">
+      <c r="A94" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="81">
         <v>92</v>
       </c>
-      <c r="C94" s="81"/>
-      <c r="D94" s="147"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="81"/>
-      <c r="G94" s="81"/>
-      <c r="H94" s="81"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="83"/>
       <c r="I94" s="35"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="B95" s="149">
+      <c r="A95" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="81">
         <v>93</v>
       </c>
-      <c r="C95" s="81"/>
-      <c r="D95" s="147"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="81"/>
-      <c r="G95" s="81"/>
-      <c r="H95" s="81"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="103"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="83"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="83"/>
       <c r="I95" s="35"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96" s="149">
+      <c r="A96" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="81">
         <v>94</v>
       </c>
-      <c r="C96" s="81"/>
-      <c r="D96" s="147"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="81"/>
-      <c r="G96" s="81"/>
-      <c r="H96" s="81"/>
-      <c r="I96" s="35"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="103"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="83"/>
+      <c r="H96" s="83"/>
+      <c r="I96" s="35" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="B97" s="149">
+      <c r="A97" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="81">
         <v>95</v>
       </c>
-      <c r="C97" s="81"/>
-      <c r="D97" s="148"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="81"/>
-      <c r="G97" s="81"/>
-      <c r="H97" s="81"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="104"/>
+      <c r="E97" s="86"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="83"/>
       <c r="I97" s="35" t="s">
         <v>31</v>
       </c>
@@ -3494,12 +3499,12 @@
       <c r="B98" s="65">
         <v>96</v>
       </c>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="91"/>
-      <c r="F98" s="81"/>
-      <c r="G98" s="81"/>
-      <c r="H98" s="81"/>
+      <c r="C98" s="84"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="83"/>
+      <c r="H98" s="83"/>
       <c r="I98" s="67"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3509,12 +3514,12 @@
       <c r="B99" s="65">
         <v>97</v>
       </c>
-      <c r="C99" s="83"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="81"/>
-      <c r="G99" s="81"/>
-      <c r="H99" s="81"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="88"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="83"/>
+      <c r="H99" s="83"/>
       <c r="I99" s="67"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3524,12 +3529,12 @@
       <c r="B100" s="65">
         <v>98</v>
       </c>
-      <c r="C100" s="83"/>
-      <c r="D100" s="83"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="81"/>
-      <c r="G100" s="81"/>
-      <c r="H100" s="81"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="88"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="83"/>
       <c r="I100" s="67"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3539,12 +3544,12 @@
       <c r="B101" s="65">
         <v>99</v>
       </c>
-      <c r="C101" s="84"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="81"/>
-      <c r="G101" s="81"/>
-      <c r="H101" s="81"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="88"/>
+      <c r="F101" s="83"/>
+      <c r="G101" s="83"/>
+      <c r="H101" s="83"/>
       <c r="I101" s="67"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3554,12 +3559,12 @@
       <c r="B102" s="65">
         <v>100</v>
       </c>
-      <c r="C102" s="82"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="81"/>
-      <c r="G102" s="81"/>
-      <c r="H102" s="81"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="88"/>
+      <c r="F102" s="83"/>
+      <c r="G102" s="83"/>
+      <c r="H102" s="83"/>
       <c r="I102" s="67"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3569,12 +3574,12 @@
       <c r="B103" s="65">
         <v>101</v>
       </c>
-      <c r="C103" s="83"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="81"/>
-      <c r="H103" s="81"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="83"/>
+      <c r="G103" s="83"/>
+      <c r="H103" s="83"/>
       <c r="I103" s="67"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3584,12 +3589,12 @@
       <c r="B104" s="65">
         <v>102</v>
       </c>
-      <c r="C104" s="83"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="92"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="81"/>
-      <c r="H104" s="81"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="83"/>
+      <c r="G104" s="83"/>
+      <c r="H104" s="83"/>
       <c r="I104" s="67"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3599,12 +3604,12 @@
       <c r="B105" s="65">
         <v>103</v>
       </c>
-      <c r="C105" s="84"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="81"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="88"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="83"/>
       <c r="I105" s="67"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3614,12 +3619,12 @@
       <c r="B106" s="65">
         <v>104</v>
       </c>
-      <c r="C106" s="82"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="92"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="81"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="83"/>
       <c r="I106" s="67"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3629,12 +3634,12 @@
       <c r="B107" s="65">
         <v>105</v>
       </c>
-      <c r="C107" s="83"/>
-      <c r="D107" s="83"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="81"/>
-      <c r="G107" s="81"/>
-      <c r="H107" s="81"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="88"/>
+      <c r="F107" s="83"/>
+      <c r="G107" s="83"/>
+      <c r="H107" s="83"/>
       <c r="I107" s="67"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3644,12 +3649,12 @@
       <c r="B108" s="65">
         <v>106</v>
       </c>
-      <c r="C108" s="83"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="92"/>
-      <c r="F108" s="81"/>
-      <c r="G108" s="81"/>
-      <c r="H108" s="81"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="88"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="83"/>
+      <c r="H108" s="83"/>
       <c r="I108" s="67"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3659,12 +3664,12 @@
       <c r="B109" s="65">
         <v>107</v>
       </c>
-      <c r="C109" s="84"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="92"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="81"/>
-      <c r="H109" s="81"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="85"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="83"/>
+      <c r="H109" s="83"/>
       <c r="I109" s="67"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3674,12 +3679,12 @@
       <c r="B110" s="65">
         <v>108</v>
       </c>
-      <c r="C110" s="82"/>
-      <c r="D110" s="83"/>
-      <c r="E110" s="92"/>
-      <c r="F110" s="81"/>
-      <c r="G110" s="81"/>
-      <c r="H110" s="81"/>
+      <c r="C110" s="84"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="88"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="83"/>
+      <c r="H110" s="83"/>
       <c r="I110" s="67"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3689,12 +3694,12 @@
       <c r="B111" s="65">
         <v>109</v>
       </c>
-      <c r="C111" s="83"/>
-      <c r="D111" s="83"/>
-      <c r="E111" s="92"/>
-      <c r="F111" s="81"/>
-      <c r="G111" s="81"/>
-      <c r="H111" s="81"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="88"/>
+      <c r="F111" s="83"/>
+      <c r="G111" s="83"/>
+      <c r="H111" s="83"/>
       <c r="I111" s="67"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3704,12 +3709,12 @@
       <c r="B112" s="65">
         <v>110</v>
       </c>
-      <c r="C112" s="83"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="92"/>
-      <c r="F112" s="81"/>
-      <c r="G112" s="81"/>
-      <c r="H112" s="81"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="88"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="83"/>
+      <c r="H112" s="83"/>
       <c r="I112" s="67"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3719,12 +3724,12 @@
       <c r="B113" s="65">
         <v>111</v>
       </c>
-      <c r="C113" s="84"/>
-      <c r="D113" s="84"/>
-      <c r="E113" s="93"/>
-      <c r="F113" s="81"/>
-      <c r="G113" s="81"/>
-      <c r="H113" s="81"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="86"/>
+      <c r="E113" s="89"/>
+      <c r="F113" s="83"/>
+      <c r="G113" s="83"/>
+      <c r="H113" s="83"/>
       <c r="I113" s="67"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3734,12 +3739,12 @@
       <c r="B114" s="65">
         <v>112</v>
       </c>
-      <c r="C114" s="81"/>
-      <c r="D114" s="81"/>
-      <c r="E114" s="82"/>
-      <c r="F114" s="81"/>
-      <c r="G114" s="81"/>
-      <c r="H114" s="81"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="84"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="83"/>
+      <c r="H114" s="83"/>
       <c r="I114" s="67"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3749,12 +3754,12 @@
       <c r="B115" s="65">
         <v>113</v>
       </c>
-      <c r="C115" s="81"/>
-      <c r="D115" s="81"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="81"/>
-      <c r="G115" s="81"/>
-      <c r="H115" s="81"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="83"/>
+      <c r="G115" s="83"/>
+      <c r="H115" s="83"/>
       <c r="I115" s="67"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3764,12 +3769,12 @@
       <c r="B116" s="65">
         <v>114</v>
       </c>
-      <c r="C116" s="81"/>
-      <c r="D116" s="81"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="81"/>
-      <c r="G116" s="81"/>
-      <c r="H116" s="81"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="83"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="83"/>
+      <c r="H116" s="83"/>
       <c r="I116" s="67"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3779,12 +3784,12 @@
       <c r="B117" s="65">
         <v>115</v>
       </c>
-      <c r="C117" s="81"/>
-      <c r="D117" s="81"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="81"/>
-      <c r="G117" s="81"/>
-      <c r="H117" s="81"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="83"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="83"/>
+      <c r="G117" s="83"/>
+      <c r="H117" s="83"/>
       <c r="I117" s="67"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3794,12 +3799,12 @@
       <c r="B118" s="65">
         <v>116</v>
       </c>
-      <c r="C118" s="81"/>
-      <c r="D118" s="81"/>
-      <c r="E118" s="83"/>
-      <c r="F118" s="81"/>
-      <c r="G118" s="81"/>
-      <c r="H118" s="81"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="83"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="83"/>
+      <c r="H118" s="83"/>
       <c r="I118" s="67"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3809,12 +3814,12 @@
       <c r="B119" s="65">
         <v>117</v>
       </c>
-      <c r="C119" s="81"/>
-      <c r="D119" s="81"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="81"/>
-      <c r="G119" s="81"/>
-      <c r="H119" s="81"/>
+      <c r="C119" s="83"/>
+      <c r="D119" s="83"/>
+      <c r="E119" s="85"/>
+      <c r="F119" s="83"/>
+      <c r="G119" s="83"/>
+      <c r="H119" s="83"/>
       <c r="I119" s="67"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3824,12 +3829,12 @@
       <c r="B120" s="65">
         <v>118</v>
       </c>
-      <c r="C120" s="81"/>
-      <c r="D120" s="81"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="81"/>
-      <c r="G120" s="81"/>
-      <c r="H120" s="81"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="83"/>
+      <c r="E120" s="85"/>
+      <c r="F120" s="83"/>
+      <c r="G120" s="83"/>
+      <c r="H120" s="83"/>
       <c r="I120" s="67"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3839,12 +3844,12 @@
       <c r="B121" s="65">
         <v>119</v>
       </c>
-      <c r="C121" s="81"/>
-      <c r="D121" s="81"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="81"/>
-      <c r="G121" s="81"/>
-      <c r="H121" s="81"/>
+      <c r="C121" s="83"/>
+      <c r="D121" s="83"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="83"/>
+      <c r="G121" s="83"/>
+      <c r="H121" s="83"/>
       <c r="I121" s="67"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3854,12 +3859,12 @@
       <c r="B122" s="65">
         <v>120</v>
       </c>
-      <c r="C122" s="81"/>
-      <c r="D122" s="81"/>
-      <c r="E122" s="83"/>
-      <c r="F122" s="81"/>
-      <c r="G122" s="81"/>
-      <c r="H122" s="81"/>
+      <c r="C122" s="83"/>
+      <c r="D122" s="83"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="83"/>
+      <c r="G122" s="83"/>
+      <c r="H122" s="83"/>
       <c r="I122" s="67"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -3869,12 +3874,12 @@
       <c r="B123" s="65">
         <v>121</v>
       </c>
-      <c r="C123" s="81"/>
-      <c r="D123" s="81"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81"/>
-      <c r="H123" s="81"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="83"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
+      <c r="H123" s="83"/>
       <c r="I123" s="67"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3884,12 +3889,12 @@
       <c r="B124" s="65">
         <v>122</v>
       </c>
-      <c r="C124" s="81"/>
-      <c r="D124" s="81"/>
-      <c r="E124" s="83"/>
-      <c r="F124" s="81"/>
-      <c r="G124" s="81"/>
-      <c r="H124" s="81"/>
+      <c r="C124" s="83"/>
+      <c r="D124" s="83"/>
+      <c r="E124" s="85"/>
+      <c r="F124" s="83"/>
+      <c r="G124" s="83"/>
+      <c r="H124" s="83"/>
       <c r="I124" s="67"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -3899,12 +3904,12 @@
       <c r="B125" s="65">
         <v>123</v>
       </c>
-      <c r="C125" s="81"/>
-      <c r="D125" s="81"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="81"/>
-      <c r="G125" s="81"/>
-      <c r="H125" s="81"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="83"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="83"/>
+      <c r="G125" s="83"/>
+      <c r="H125" s="83"/>
       <c r="I125" s="67"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3914,12 +3919,12 @@
       <c r="B126" s="65">
         <v>124</v>
       </c>
-      <c r="C126" s="81"/>
-      <c r="D126" s="81"/>
-      <c r="E126" s="83"/>
-      <c r="F126" s="81"/>
-      <c r="G126" s="81"/>
-      <c r="H126" s="81"/>
+      <c r="C126" s="83"/>
+      <c r="D126" s="83"/>
+      <c r="E126" s="85"/>
+      <c r="F126" s="83"/>
+      <c r="G126" s="83"/>
+      <c r="H126" s="83"/>
       <c r="I126" s="67"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -3929,12 +3934,12 @@
       <c r="B127" s="65">
         <v>125</v>
       </c>
-      <c r="C127" s="81"/>
-      <c r="D127" s="81"/>
-      <c r="E127" s="83"/>
-      <c r="F127" s="81"/>
-      <c r="G127" s="81"/>
-      <c r="H127" s="81"/>
+      <c r="C127" s="83"/>
+      <c r="D127" s="83"/>
+      <c r="E127" s="85"/>
+      <c r="F127" s="83"/>
+      <c r="G127" s="83"/>
+      <c r="H127" s="83"/>
       <c r="I127" s="67"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3944,12 +3949,12 @@
       <c r="B128" s="65">
         <v>126</v>
       </c>
-      <c r="C128" s="81"/>
-      <c r="D128" s="81"/>
-      <c r="E128" s="83"/>
-      <c r="F128" s="81"/>
-      <c r="G128" s="81"/>
-      <c r="H128" s="81"/>
+      <c r="C128" s="83"/>
+      <c r="D128" s="83"/>
+      <c r="E128" s="85"/>
+      <c r="F128" s="83"/>
+      <c r="G128" s="83"/>
+      <c r="H128" s="83"/>
       <c r="I128" s="67"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -3959,12 +3964,12 @@
       <c r="B129" s="65">
         <v>127</v>
       </c>
-      <c r="C129" s="81"/>
-      <c r="D129" s="81"/>
-      <c r="E129" s="84"/>
-      <c r="F129" s="81"/>
-      <c r="G129" s="81"/>
-      <c r="H129" s="81"/>
+      <c r="C129" s="83"/>
+      <c r="D129" s="83"/>
+      <c r="E129" s="86"/>
+      <c r="F129" s="83"/>
+      <c r="G129" s="83"/>
+      <c r="H129" s="83"/>
       <c r="I129" s="67"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -3974,12 +3979,12 @@
       <c r="B130" s="65">
         <v>128</v>
       </c>
-      <c r="C130" s="82"/>
-      <c r="D130" s="82"/>
-      <c r="E130" s="97"/>
-      <c r="F130" s="81"/>
-      <c r="G130" s="81"/>
-      <c r="H130" s="81"/>
+      <c r="C130" s="84"/>
+      <c r="D130" s="84"/>
+      <c r="E130" s="91"/>
+      <c r="F130" s="83"/>
+      <c r="G130" s="83"/>
+      <c r="H130" s="83"/>
       <c r="I130" s="67"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -3989,12 +3994,12 @@
       <c r="B131" s="65">
         <v>129</v>
       </c>
-      <c r="C131" s="83"/>
-      <c r="D131" s="83"/>
-      <c r="E131" s="98"/>
-      <c r="F131" s="81"/>
-      <c r="G131" s="81"/>
-      <c r="H131" s="81"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="85"/>
+      <c r="E131" s="92"/>
+      <c r="F131" s="83"/>
+      <c r="G131" s="83"/>
+      <c r="H131" s="83"/>
       <c r="I131" s="67"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4004,12 +4009,12 @@
       <c r="B132" s="65">
         <v>130</v>
       </c>
-      <c r="C132" s="83"/>
-      <c r="D132" s="83"/>
-      <c r="E132" s="98"/>
-      <c r="F132" s="81"/>
-      <c r="G132" s="81"/>
-      <c r="H132" s="81"/>
+      <c r="C132" s="85"/>
+      <c r="D132" s="85"/>
+      <c r="E132" s="92"/>
+      <c r="F132" s="83"/>
+      <c r="G132" s="83"/>
+      <c r="H132" s="83"/>
       <c r="I132" s="67"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4019,12 +4024,12 @@
       <c r="B133" s="65">
         <v>131</v>
       </c>
-      <c r="C133" s="84"/>
-      <c r="D133" s="83"/>
-      <c r="E133" s="98"/>
-      <c r="F133" s="81"/>
-      <c r="G133" s="81"/>
-      <c r="H133" s="81"/>
+      <c r="C133" s="86"/>
+      <c r="D133" s="85"/>
+      <c r="E133" s="92"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="83"/>
+      <c r="H133" s="83"/>
       <c r="I133" s="67"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4034,12 +4039,12 @@
       <c r="B134" s="65">
         <v>132</v>
       </c>
-      <c r="C134" s="82"/>
-      <c r="D134" s="83"/>
-      <c r="E134" s="98"/>
-      <c r="F134" s="81"/>
-      <c r="G134" s="81"/>
-      <c r="H134" s="81"/>
+      <c r="C134" s="84"/>
+      <c r="D134" s="85"/>
+      <c r="E134" s="92"/>
+      <c r="F134" s="83"/>
+      <c r="G134" s="83"/>
+      <c r="H134" s="83"/>
       <c r="I134" s="67"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4049,12 +4054,12 @@
       <c r="B135" s="65">
         <v>133</v>
       </c>
-      <c r="C135" s="83"/>
-      <c r="D135" s="83"/>
-      <c r="E135" s="98"/>
-      <c r="F135" s="81"/>
-      <c r="G135" s="81"/>
-      <c r="H135" s="81"/>
+      <c r="C135" s="85"/>
+      <c r="D135" s="85"/>
+      <c r="E135" s="92"/>
+      <c r="F135" s="83"/>
+      <c r="G135" s="83"/>
+      <c r="H135" s="83"/>
       <c r="I135" s="67"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4064,12 +4069,12 @@
       <c r="B136" s="65">
         <v>134</v>
       </c>
-      <c r="C136" s="83"/>
-      <c r="D136" s="83"/>
-      <c r="E136" s="98"/>
-      <c r="F136" s="81"/>
-      <c r="G136" s="81"/>
-      <c r="H136" s="81"/>
+      <c r="C136" s="85"/>
+      <c r="D136" s="85"/>
+      <c r="E136" s="92"/>
+      <c r="F136" s="83"/>
+      <c r="G136" s="83"/>
+      <c r="H136" s="83"/>
       <c r="I136" s="67"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4079,12 +4084,12 @@
       <c r="B137" s="65">
         <v>135</v>
       </c>
-      <c r="C137" s="84"/>
-      <c r="D137" s="84"/>
-      <c r="E137" s="98"/>
-      <c r="F137" s="81"/>
-      <c r="G137" s="81"/>
-      <c r="H137" s="81"/>
+      <c r="C137" s="86"/>
+      <c r="D137" s="86"/>
+      <c r="E137" s="92"/>
+      <c r="F137" s="83"/>
+      <c r="G137" s="83"/>
+      <c r="H137" s="83"/>
       <c r="I137" s="67"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4094,12 +4099,12 @@
       <c r="B138" s="65">
         <v>136</v>
       </c>
-      <c r="C138" s="82"/>
-      <c r="D138" s="82"/>
-      <c r="E138" s="98"/>
-      <c r="F138" s="81"/>
-      <c r="G138" s="81"/>
-      <c r="H138" s="81"/>
+      <c r="C138" s="84"/>
+      <c r="D138" s="84"/>
+      <c r="E138" s="92"/>
+      <c r="F138" s="83"/>
+      <c r="G138" s="83"/>
+      <c r="H138" s="83"/>
       <c r="I138" s="67"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4109,12 +4114,12 @@
       <c r="B139" s="65">
         <v>137</v>
       </c>
-      <c r="C139" s="83"/>
-      <c r="D139" s="83"/>
-      <c r="E139" s="98"/>
-      <c r="F139" s="81"/>
-      <c r="G139" s="81"/>
-      <c r="H139" s="81"/>
+      <c r="C139" s="85"/>
+      <c r="D139" s="85"/>
+      <c r="E139" s="92"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="83"/>
+      <c r="H139" s="83"/>
       <c r="I139" s="67"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4124,12 +4129,12 @@
       <c r="B140" s="65">
         <v>138</v>
       </c>
-      <c r="C140" s="83"/>
-      <c r="D140" s="83"/>
-      <c r="E140" s="98"/>
-      <c r="F140" s="81"/>
-      <c r="G140" s="81"/>
-      <c r="H140" s="81"/>
+      <c r="C140" s="85"/>
+      <c r="D140" s="85"/>
+      <c r="E140" s="92"/>
+      <c r="F140" s="83"/>
+      <c r="G140" s="83"/>
+      <c r="H140" s="83"/>
       <c r="I140" s="67"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4139,12 +4144,12 @@
       <c r="B141" s="65">
         <v>139</v>
       </c>
-      <c r="C141" s="84"/>
-      <c r="D141" s="83"/>
-      <c r="E141" s="98"/>
-      <c r="F141" s="81"/>
-      <c r="G141" s="81"/>
-      <c r="H141" s="81"/>
+      <c r="C141" s="86"/>
+      <c r="D141" s="85"/>
+      <c r="E141" s="92"/>
+      <c r="F141" s="83"/>
+      <c r="G141" s="83"/>
+      <c r="H141" s="83"/>
       <c r="I141" s="67"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -4154,12 +4159,12 @@
       <c r="B142" s="65">
         <v>140</v>
       </c>
-      <c r="C142" s="82"/>
-      <c r="D142" s="83"/>
-      <c r="E142" s="98"/>
-      <c r="F142" s="81"/>
-      <c r="G142" s="81"/>
-      <c r="H142" s="81"/>
+      <c r="C142" s="84"/>
+      <c r="D142" s="85"/>
+      <c r="E142" s="92"/>
+      <c r="F142" s="83"/>
+      <c r="G142" s="83"/>
+      <c r="H142" s="83"/>
       <c r="I142" s="67"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -4169,12 +4174,12 @@
       <c r="B143" s="65">
         <v>141</v>
       </c>
-      <c r="C143" s="83"/>
-      <c r="D143" s="83"/>
-      <c r="E143" s="98"/>
-      <c r="F143" s="81"/>
-      <c r="G143" s="81"/>
-      <c r="H143" s="81"/>
+      <c r="C143" s="85"/>
+      <c r="D143" s="85"/>
+      <c r="E143" s="92"/>
+      <c r="F143" s="83"/>
+      <c r="G143" s="83"/>
+      <c r="H143" s="83"/>
       <c r="I143" s="67"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4184,12 +4189,12 @@
       <c r="B144" s="65">
         <v>142</v>
       </c>
-      <c r="C144" s="83"/>
-      <c r="D144" s="83"/>
-      <c r="E144" s="98"/>
-      <c r="F144" s="81"/>
-      <c r="G144" s="81"/>
-      <c r="H144" s="81"/>
+      <c r="C144" s="85"/>
+      <c r="D144" s="85"/>
+      <c r="E144" s="92"/>
+      <c r="F144" s="83"/>
+      <c r="G144" s="83"/>
+      <c r="H144" s="83"/>
       <c r="I144" s="67"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4199,12 +4204,12 @@
       <c r="B145" s="65">
         <v>143</v>
       </c>
-      <c r="C145" s="84"/>
-      <c r="D145" s="84"/>
-      <c r="E145" s="99"/>
-      <c r="F145" s="81"/>
-      <c r="G145" s="81"/>
-      <c r="H145" s="81"/>
+      <c r="C145" s="86"/>
+      <c r="D145" s="86"/>
+      <c r="E145" s="93"/>
+      <c r="F145" s="83"/>
+      <c r="G145" s="83"/>
+      <c r="H145" s="83"/>
       <c r="I145" s="67"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -4214,12 +4219,12 @@
       <c r="B146" s="65">
         <v>144</v>
       </c>
-      <c r="C146" s="81"/>
-      <c r="D146" s="81"/>
-      <c r="E146" s="82"/>
-      <c r="F146" s="81"/>
-      <c r="G146" s="81"/>
-      <c r="H146" s="81"/>
+      <c r="C146" s="83"/>
+      <c r="D146" s="83"/>
+      <c r="E146" s="84"/>
+      <c r="F146" s="83"/>
+      <c r="G146" s="83"/>
+      <c r="H146" s="83"/>
       <c r="I146" s="67"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -4229,12 +4234,12 @@
       <c r="B147" s="65">
         <v>145</v>
       </c>
-      <c r="C147" s="81"/>
-      <c r="D147" s="81"/>
-      <c r="E147" s="83"/>
-      <c r="F147" s="81"/>
-      <c r="G147" s="81"/>
-      <c r="H147" s="81"/>
+      <c r="C147" s="83"/>
+      <c r="D147" s="83"/>
+      <c r="E147" s="85"/>
+      <c r="F147" s="83"/>
+      <c r="G147" s="83"/>
+      <c r="H147" s="83"/>
       <c r="I147" s="67"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4244,12 +4249,12 @@
       <c r="B148" s="65">
         <v>146</v>
       </c>
-      <c r="C148" s="81"/>
-      <c r="D148" s="81"/>
-      <c r="E148" s="83"/>
-      <c r="F148" s="81"/>
-      <c r="G148" s="81"/>
-      <c r="H148" s="81"/>
+      <c r="C148" s="83"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="85"/>
+      <c r="F148" s="83"/>
+      <c r="G148" s="83"/>
+      <c r="H148" s="83"/>
       <c r="I148" s="67"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4259,12 +4264,12 @@
       <c r="B149" s="65">
         <v>147</v>
       </c>
-      <c r="C149" s="81"/>
-      <c r="D149" s="81"/>
-      <c r="E149" s="83"/>
-      <c r="F149" s="81"/>
-      <c r="G149" s="81"/>
-      <c r="H149" s="81"/>
+      <c r="C149" s="83"/>
+      <c r="D149" s="83"/>
+      <c r="E149" s="85"/>
+      <c r="F149" s="83"/>
+      <c r="G149" s="83"/>
+      <c r="H149" s="83"/>
       <c r="I149" s="67"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -4274,12 +4279,12 @@
       <c r="B150" s="65">
         <v>148</v>
       </c>
-      <c r="C150" s="81"/>
-      <c r="D150" s="81"/>
-      <c r="E150" s="83"/>
-      <c r="F150" s="81"/>
-      <c r="G150" s="81"/>
-      <c r="H150" s="81"/>
+      <c r="C150" s="83"/>
+      <c r="D150" s="83"/>
+      <c r="E150" s="85"/>
+      <c r="F150" s="83"/>
+      <c r="G150" s="83"/>
+      <c r="H150" s="83"/>
       <c r="I150" s="67"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -4289,12 +4294,12 @@
       <c r="B151" s="65">
         <v>149</v>
       </c>
-      <c r="C151" s="81"/>
-      <c r="D151" s="81"/>
-      <c r="E151" s="83"/>
-      <c r="F151" s="81"/>
-      <c r="G151" s="81"/>
-      <c r="H151" s="81"/>
+      <c r="C151" s="83"/>
+      <c r="D151" s="83"/>
+      <c r="E151" s="85"/>
+      <c r="F151" s="83"/>
+      <c r="G151" s="83"/>
+      <c r="H151" s="83"/>
       <c r="I151" s="67"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -4304,12 +4309,12 @@
       <c r="B152" s="65">
         <v>150</v>
       </c>
-      <c r="C152" s="81"/>
-      <c r="D152" s="81"/>
-      <c r="E152" s="83"/>
-      <c r="F152" s="81"/>
-      <c r="G152" s="81"/>
-      <c r="H152" s="81"/>
+      <c r="C152" s="83"/>
+      <c r="D152" s="83"/>
+      <c r="E152" s="85"/>
+      <c r="F152" s="83"/>
+      <c r="G152" s="83"/>
+      <c r="H152" s="83"/>
       <c r="I152" s="67"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -4319,12 +4324,12 @@
       <c r="B153" s="65">
         <v>151</v>
       </c>
-      <c r="C153" s="81"/>
-      <c r="D153" s="81"/>
-      <c r="E153" s="83"/>
-      <c r="F153" s="81"/>
-      <c r="G153" s="81"/>
-      <c r="H153" s="81"/>
+      <c r="C153" s="83"/>
+      <c r="D153" s="83"/>
+      <c r="E153" s="85"/>
+      <c r="F153" s="83"/>
+      <c r="G153" s="83"/>
+      <c r="H153" s="83"/>
       <c r="I153" s="67"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -4334,12 +4339,12 @@
       <c r="B154" s="65">
         <v>152</v>
       </c>
-      <c r="C154" s="81"/>
-      <c r="D154" s="81"/>
-      <c r="E154" s="83"/>
-      <c r="F154" s="81"/>
-      <c r="G154" s="81"/>
-      <c r="H154" s="81"/>
+      <c r="C154" s="83"/>
+      <c r="D154" s="83"/>
+      <c r="E154" s="85"/>
+      <c r="F154" s="83"/>
+      <c r="G154" s="83"/>
+      <c r="H154" s="83"/>
       <c r="I154" s="67"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -4349,12 +4354,12 @@
       <c r="B155" s="65">
         <v>153</v>
       </c>
-      <c r="C155" s="81"/>
-      <c r="D155" s="81"/>
-      <c r="E155" s="83"/>
-      <c r="F155" s="81"/>
-      <c r="G155" s="81"/>
-      <c r="H155" s="81"/>
+      <c r="C155" s="83"/>
+      <c r="D155" s="83"/>
+      <c r="E155" s="85"/>
+      <c r="F155" s="83"/>
+      <c r="G155" s="83"/>
+      <c r="H155" s="83"/>
       <c r="I155" s="67"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -4364,12 +4369,12 @@
       <c r="B156" s="65">
         <v>154</v>
       </c>
-      <c r="C156" s="81"/>
-      <c r="D156" s="81"/>
-      <c r="E156" s="83"/>
-      <c r="F156" s="81"/>
-      <c r="G156" s="81"/>
-      <c r="H156" s="81"/>
+      <c r="C156" s="83"/>
+      <c r="D156" s="83"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="83"/>
+      <c r="G156" s="83"/>
+      <c r="H156" s="83"/>
       <c r="I156" s="67"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -4379,12 +4384,12 @@
       <c r="B157" s="65">
         <v>155</v>
       </c>
-      <c r="C157" s="81"/>
-      <c r="D157" s="81"/>
-      <c r="E157" s="83"/>
-      <c r="F157" s="81"/>
-      <c r="G157" s="81"/>
-      <c r="H157" s="81"/>
+      <c r="C157" s="83"/>
+      <c r="D157" s="83"/>
+      <c r="E157" s="85"/>
+      <c r="F157" s="83"/>
+      <c r="G157" s="83"/>
+      <c r="H157" s="83"/>
       <c r="I157" s="67"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -4394,12 +4399,12 @@
       <c r="B158" s="65">
         <v>156</v>
       </c>
-      <c r="C158" s="81"/>
-      <c r="D158" s="81"/>
-      <c r="E158" s="83"/>
-      <c r="F158" s="81"/>
-      <c r="G158" s="81"/>
-      <c r="H158" s="81"/>
+      <c r="C158" s="83"/>
+      <c r="D158" s="83"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="83"/>
+      <c r="G158" s="83"/>
+      <c r="H158" s="83"/>
       <c r="I158" s="67"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -4409,12 +4414,12 @@
       <c r="B159" s="65">
         <v>157</v>
       </c>
-      <c r="C159" s="81"/>
-      <c r="D159" s="81"/>
-      <c r="E159" s="83"/>
-      <c r="F159" s="81"/>
-      <c r="G159" s="81"/>
-      <c r="H159" s="81"/>
+      <c r="C159" s="83"/>
+      <c r="D159" s="83"/>
+      <c r="E159" s="85"/>
+      <c r="F159" s="83"/>
+      <c r="G159" s="83"/>
+      <c r="H159" s="83"/>
       <c r="I159" s="67"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -4424,12 +4429,12 @@
       <c r="B160" s="65">
         <v>158</v>
       </c>
-      <c r="C160" s="81"/>
-      <c r="D160" s="81"/>
-      <c r="E160" s="83"/>
-      <c r="F160" s="81"/>
-      <c r="G160" s="81"/>
-      <c r="H160" s="81"/>
+      <c r="C160" s="83"/>
+      <c r="D160" s="83"/>
+      <c r="E160" s="85"/>
+      <c r="F160" s="83"/>
+      <c r="G160" s="83"/>
+      <c r="H160" s="83"/>
       <c r="I160" s="67"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -4439,12 +4444,12 @@
       <c r="B161" s="65">
         <v>159</v>
       </c>
-      <c r="C161" s="81"/>
-      <c r="D161" s="81"/>
-      <c r="E161" s="84"/>
-      <c r="F161" s="81"/>
-      <c r="G161" s="81"/>
-      <c r="H161" s="81"/>
+      <c r="C161" s="83"/>
+      <c r="D161" s="83"/>
+      <c r="E161" s="86"/>
+      <c r="F161" s="83"/>
+      <c r="G161" s="83"/>
+      <c r="H161" s="83"/>
       <c r="I161" s="67"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -4454,12 +4459,12 @@
       <c r="B162" s="65">
         <v>160</v>
       </c>
-      <c r="C162" s="82"/>
-      <c r="D162" s="82"/>
-      <c r="E162" s="97"/>
-      <c r="F162" s="81"/>
-      <c r="G162" s="81"/>
-      <c r="H162" s="81"/>
+      <c r="C162" s="84"/>
+      <c r="D162" s="84"/>
+      <c r="E162" s="91"/>
+      <c r="F162" s="83"/>
+      <c r="G162" s="83"/>
+      <c r="H162" s="83"/>
       <c r="I162" s="67"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -4469,12 +4474,12 @@
       <c r="B163" s="65">
         <v>161</v>
       </c>
-      <c r="C163" s="83"/>
-      <c r="D163" s="83"/>
-      <c r="E163" s="98"/>
-      <c r="F163" s="81"/>
-      <c r="G163" s="81"/>
-      <c r="H163" s="81"/>
+      <c r="C163" s="85"/>
+      <c r="D163" s="85"/>
+      <c r="E163" s="92"/>
+      <c r="F163" s="83"/>
+      <c r="G163" s="83"/>
+      <c r="H163" s="83"/>
       <c r="I163" s="67"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -4484,12 +4489,12 @@
       <c r="B164" s="65">
         <v>162</v>
       </c>
-      <c r="C164" s="83"/>
-      <c r="D164" s="83"/>
-      <c r="E164" s="98"/>
-      <c r="F164" s="81"/>
-      <c r="G164" s="81"/>
-      <c r="H164" s="81"/>
+      <c r="C164" s="85"/>
+      <c r="D164" s="85"/>
+      <c r="E164" s="92"/>
+      <c r="F164" s="83"/>
+      <c r="G164" s="83"/>
+      <c r="H164" s="83"/>
       <c r="I164" s="67"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -4499,12 +4504,12 @@
       <c r="B165" s="65">
         <v>163</v>
       </c>
-      <c r="C165" s="84"/>
-      <c r="D165" s="83"/>
-      <c r="E165" s="98"/>
-      <c r="F165" s="81"/>
-      <c r="G165" s="81"/>
-      <c r="H165" s="81"/>
+      <c r="C165" s="86"/>
+      <c r="D165" s="85"/>
+      <c r="E165" s="92"/>
+      <c r="F165" s="83"/>
+      <c r="G165" s="83"/>
+      <c r="H165" s="83"/>
       <c r="I165" s="67"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -4514,12 +4519,12 @@
       <c r="B166" s="65">
         <v>164</v>
       </c>
-      <c r="C166" s="82"/>
-      <c r="D166" s="83"/>
-      <c r="E166" s="98"/>
-      <c r="F166" s="81"/>
-      <c r="G166" s="81"/>
-      <c r="H166" s="81"/>
+      <c r="C166" s="84"/>
+      <c r="D166" s="85"/>
+      <c r="E166" s="92"/>
+      <c r="F166" s="83"/>
+      <c r="G166" s="83"/>
+      <c r="H166" s="83"/>
       <c r="I166" s="67"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -4529,12 +4534,12 @@
       <c r="B167" s="65">
         <v>165</v>
       </c>
-      <c r="C167" s="83"/>
-      <c r="D167" s="83"/>
-      <c r="E167" s="98"/>
-      <c r="F167" s="81"/>
-      <c r="G167" s="81"/>
-      <c r="H167" s="81"/>
+      <c r="C167" s="85"/>
+      <c r="D167" s="85"/>
+      <c r="E167" s="92"/>
+      <c r="F167" s="83"/>
+      <c r="G167" s="83"/>
+      <c r="H167" s="83"/>
       <c r="I167" s="67"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -4544,12 +4549,12 @@
       <c r="B168" s="65">
         <v>166</v>
       </c>
-      <c r="C168" s="83"/>
-      <c r="D168" s="83"/>
-      <c r="E168" s="98"/>
-      <c r="F168" s="81"/>
-      <c r="G168" s="81"/>
-      <c r="H168" s="81"/>
+      <c r="C168" s="85"/>
+      <c r="D168" s="85"/>
+      <c r="E168" s="92"/>
+      <c r="F168" s="83"/>
+      <c r="G168" s="83"/>
+      <c r="H168" s="83"/>
       <c r="I168" s="67"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -4559,12 +4564,12 @@
       <c r="B169" s="65">
         <v>167</v>
       </c>
-      <c r="C169" s="84"/>
-      <c r="D169" s="84"/>
-      <c r="E169" s="98"/>
-      <c r="F169" s="81"/>
-      <c r="G169" s="81"/>
-      <c r="H169" s="81"/>
+      <c r="C169" s="86"/>
+      <c r="D169" s="86"/>
+      <c r="E169" s="92"/>
+      <c r="F169" s="83"/>
+      <c r="G169" s="83"/>
+      <c r="H169" s="83"/>
       <c r="I169" s="67"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -4574,12 +4579,12 @@
       <c r="B170" s="65">
         <v>168</v>
       </c>
-      <c r="C170" s="82"/>
-      <c r="D170" s="82"/>
-      <c r="E170" s="98"/>
-      <c r="F170" s="81"/>
-      <c r="G170" s="81"/>
-      <c r="H170" s="81"/>
+      <c r="C170" s="84"/>
+      <c r="D170" s="84"/>
+      <c r="E170" s="92"/>
+      <c r="F170" s="83"/>
+      <c r="G170" s="83"/>
+      <c r="H170" s="83"/>
       <c r="I170" s="67"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -4589,12 +4594,12 @@
       <c r="B171" s="65">
         <v>169</v>
       </c>
-      <c r="C171" s="83"/>
-      <c r="D171" s="83"/>
-      <c r="E171" s="98"/>
-      <c r="F171" s="81"/>
-      <c r="G171" s="81"/>
-      <c r="H171" s="81"/>
+      <c r="C171" s="85"/>
+      <c r="D171" s="85"/>
+      <c r="E171" s="92"/>
+      <c r="F171" s="83"/>
+      <c r="G171" s="83"/>
+      <c r="H171" s="83"/>
       <c r="I171" s="67"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -4604,12 +4609,12 @@
       <c r="B172" s="65">
         <v>170</v>
       </c>
-      <c r="C172" s="83"/>
-      <c r="D172" s="83"/>
-      <c r="E172" s="98"/>
-      <c r="F172" s="81"/>
-      <c r="G172" s="81"/>
-      <c r="H172" s="81"/>
+      <c r="C172" s="85"/>
+      <c r="D172" s="85"/>
+      <c r="E172" s="92"/>
+      <c r="F172" s="83"/>
+      <c r="G172" s="83"/>
+      <c r="H172" s="83"/>
       <c r="I172" s="67"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -4619,12 +4624,12 @@
       <c r="B173" s="65">
         <v>171</v>
       </c>
-      <c r="C173" s="84"/>
-      <c r="D173" s="83"/>
-      <c r="E173" s="98"/>
-      <c r="F173" s="81"/>
-      <c r="G173" s="81"/>
-      <c r="H173" s="81"/>
+      <c r="C173" s="86"/>
+      <c r="D173" s="85"/>
+      <c r="E173" s="92"/>
+      <c r="F173" s="83"/>
+      <c r="G173" s="83"/>
+      <c r="H173" s="83"/>
       <c r="I173" s="67"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -4634,12 +4639,12 @@
       <c r="B174" s="65">
         <v>172</v>
       </c>
-      <c r="C174" s="82"/>
-      <c r="D174" s="83"/>
-      <c r="E174" s="98"/>
-      <c r="F174" s="81"/>
-      <c r="G174" s="81"/>
-      <c r="H174" s="81"/>
+      <c r="C174" s="84"/>
+      <c r="D174" s="85"/>
+      <c r="E174" s="92"/>
+      <c r="F174" s="83"/>
+      <c r="G174" s="83"/>
+      <c r="H174" s="83"/>
       <c r="I174" s="67"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -4649,12 +4654,12 @@
       <c r="B175" s="65">
         <v>173</v>
       </c>
-      <c r="C175" s="83"/>
-      <c r="D175" s="83"/>
-      <c r="E175" s="98"/>
-      <c r="F175" s="81"/>
-      <c r="G175" s="81"/>
-      <c r="H175" s="81"/>
+      <c r="C175" s="85"/>
+      <c r="D175" s="85"/>
+      <c r="E175" s="92"/>
+      <c r="F175" s="83"/>
+      <c r="G175" s="83"/>
+      <c r="H175" s="83"/>
       <c r="I175" s="67"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -4664,12 +4669,12 @@
       <c r="B176" s="65">
         <v>174</v>
       </c>
-      <c r="C176" s="83"/>
-      <c r="D176" s="83"/>
-      <c r="E176" s="98"/>
-      <c r="F176" s="81"/>
-      <c r="G176" s="81"/>
-      <c r="H176" s="81"/>
+      <c r="C176" s="85"/>
+      <c r="D176" s="85"/>
+      <c r="E176" s="92"/>
+      <c r="F176" s="83"/>
+      <c r="G176" s="83"/>
+      <c r="H176" s="83"/>
       <c r="I176" s="67"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -4679,12 +4684,12 @@
       <c r="B177" s="65">
         <v>175</v>
       </c>
-      <c r="C177" s="84"/>
-      <c r="D177" s="84"/>
-      <c r="E177" s="99"/>
-      <c r="F177" s="81"/>
-      <c r="G177" s="81"/>
-      <c r="H177" s="81"/>
+      <c r="C177" s="86"/>
+      <c r="D177" s="86"/>
+      <c r="E177" s="93"/>
+      <c r="F177" s="83"/>
+      <c r="G177" s="83"/>
+      <c r="H177" s="83"/>
       <c r="I177" s="67"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -4694,12 +4699,12 @@
       <c r="B178" s="65">
         <v>176</v>
       </c>
-      <c r="C178" s="81"/>
-      <c r="D178" s="81"/>
-      <c r="E178" s="82"/>
-      <c r="F178" s="81"/>
-      <c r="G178" s="81"/>
-      <c r="H178" s="81"/>
+      <c r="C178" s="83"/>
+      <c r="D178" s="83"/>
+      <c r="E178" s="84"/>
+      <c r="F178" s="83"/>
+      <c r="G178" s="83"/>
+      <c r="H178" s="83"/>
       <c r="I178" s="67"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -4709,12 +4714,12 @@
       <c r="B179" s="65">
         <v>177</v>
       </c>
-      <c r="C179" s="81"/>
-      <c r="D179" s="81"/>
-      <c r="E179" s="83"/>
-      <c r="F179" s="81"/>
-      <c r="G179" s="81"/>
-      <c r="H179" s="81"/>
+      <c r="C179" s="83"/>
+      <c r="D179" s="83"/>
+      <c r="E179" s="85"/>
+      <c r="F179" s="83"/>
+      <c r="G179" s="83"/>
+      <c r="H179" s="83"/>
       <c r="I179" s="67"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -4724,12 +4729,12 @@
       <c r="B180" s="65">
         <v>178</v>
       </c>
-      <c r="C180" s="81"/>
-      <c r="D180" s="81"/>
-      <c r="E180" s="83"/>
-      <c r="F180" s="81"/>
-      <c r="G180" s="81"/>
-      <c r="H180" s="81"/>
+      <c r="C180" s="83"/>
+      <c r="D180" s="83"/>
+      <c r="E180" s="85"/>
+      <c r="F180" s="83"/>
+      <c r="G180" s="83"/>
+      <c r="H180" s="83"/>
       <c r="I180" s="67"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -4739,12 +4744,12 @@
       <c r="B181" s="65">
         <v>179</v>
       </c>
-      <c r="C181" s="81"/>
-      <c r="D181" s="81"/>
-      <c r="E181" s="83"/>
-      <c r="F181" s="81"/>
-      <c r="G181" s="81"/>
-      <c r="H181" s="81"/>
+      <c r="C181" s="83"/>
+      <c r="D181" s="83"/>
+      <c r="E181" s="85"/>
+      <c r="F181" s="83"/>
+      <c r="G181" s="83"/>
+      <c r="H181" s="83"/>
       <c r="I181" s="67"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -4754,12 +4759,12 @@
       <c r="B182" s="65">
         <v>180</v>
       </c>
-      <c r="C182" s="81"/>
-      <c r="D182" s="81"/>
-      <c r="E182" s="83"/>
-      <c r="F182" s="81"/>
-      <c r="G182" s="81"/>
-      <c r="H182" s="81"/>
+      <c r="C182" s="83"/>
+      <c r="D182" s="83"/>
+      <c r="E182" s="85"/>
+      <c r="F182" s="83"/>
+      <c r="G182" s="83"/>
+      <c r="H182" s="83"/>
       <c r="I182" s="67"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -4769,12 +4774,12 @@
       <c r="B183" s="65">
         <v>181</v>
       </c>
-      <c r="C183" s="81"/>
-      <c r="D183" s="81"/>
-      <c r="E183" s="83"/>
-      <c r="F183" s="81"/>
-      <c r="G183" s="81"/>
-      <c r="H183" s="81"/>
+      <c r="C183" s="83"/>
+      <c r="D183" s="83"/>
+      <c r="E183" s="85"/>
+      <c r="F183" s="83"/>
+      <c r="G183" s="83"/>
+      <c r="H183" s="83"/>
       <c r="I183" s="67"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -4784,12 +4789,12 @@
       <c r="B184" s="65">
         <v>182</v>
       </c>
-      <c r="C184" s="81"/>
-      <c r="D184" s="81"/>
-      <c r="E184" s="83"/>
-      <c r="F184" s="81"/>
-      <c r="G184" s="81"/>
-      <c r="H184" s="81"/>
+      <c r="C184" s="83"/>
+      <c r="D184" s="83"/>
+      <c r="E184" s="85"/>
+      <c r="F184" s="83"/>
+      <c r="G184" s="83"/>
+      <c r="H184" s="83"/>
       <c r="I184" s="67"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -4799,12 +4804,12 @@
       <c r="B185" s="65">
         <v>183</v>
       </c>
-      <c r="C185" s="81"/>
-      <c r="D185" s="81"/>
-      <c r="E185" s="83"/>
-      <c r="F185" s="81"/>
-      <c r="G185" s="81"/>
-      <c r="H185" s="81"/>
+      <c r="C185" s="83"/>
+      <c r="D185" s="83"/>
+      <c r="E185" s="85"/>
+      <c r="F185" s="83"/>
+      <c r="G185" s="83"/>
+      <c r="H185" s="83"/>
       <c r="I185" s="67"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -4814,12 +4819,12 @@
       <c r="B186" s="65">
         <v>184</v>
       </c>
-      <c r="C186" s="81"/>
-      <c r="D186" s="81"/>
-      <c r="E186" s="83"/>
-      <c r="F186" s="81"/>
-      <c r="G186" s="81"/>
-      <c r="H186" s="81"/>
+      <c r="C186" s="83"/>
+      <c r="D186" s="83"/>
+      <c r="E186" s="85"/>
+      <c r="F186" s="83"/>
+      <c r="G186" s="83"/>
+      <c r="H186" s="83"/>
       <c r="I186" s="67"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -4829,12 +4834,12 @@
       <c r="B187" s="65">
         <v>185</v>
       </c>
-      <c r="C187" s="81"/>
-      <c r="D187" s="81"/>
-      <c r="E187" s="83"/>
-      <c r="F187" s="81"/>
-      <c r="G187" s="81"/>
-      <c r="H187" s="81"/>
+      <c r="C187" s="83"/>
+      <c r="D187" s="83"/>
+      <c r="E187" s="85"/>
+      <c r="F187" s="83"/>
+      <c r="G187" s="83"/>
+      <c r="H187" s="83"/>
       <c r="I187" s="67"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -4844,12 +4849,12 @@
       <c r="B188" s="65">
         <v>186</v>
       </c>
-      <c r="C188" s="81"/>
-      <c r="D188" s="81"/>
-      <c r="E188" s="83"/>
-      <c r="F188" s="81"/>
-      <c r="G188" s="81"/>
-      <c r="H188" s="81"/>
+      <c r="C188" s="83"/>
+      <c r="D188" s="83"/>
+      <c r="E188" s="85"/>
+      <c r="F188" s="83"/>
+      <c r="G188" s="83"/>
+      <c r="H188" s="83"/>
       <c r="I188" s="67"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -4859,12 +4864,12 @@
       <c r="B189" s="65">
         <v>187</v>
       </c>
-      <c r="C189" s="81"/>
-      <c r="D189" s="81"/>
-      <c r="E189" s="83"/>
-      <c r="F189" s="81"/>
-      <c r="G189" s="81"/>
-      <c r="H189" s="81"/>
+      <c r="C189" s="83"/>
+      <c r="D189" s="83"/>
+      <c r="E189" s="85"/>
+      <c r="F189" s="83"/>
+      <c r="G189" s="83"/>
+      <c r="H189" s="83"/>
       <c r="I189" s="67"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -4874,12 +4879,12 @@
       <c r="B190" s="65">
         <v>188</v>
       </c>
-      <c r="C190" s="81"/>
-      <c r="D190" s="81"/>
-      <c r="E190" s="83"/>
-      <c r="F190" s="81"/>
-      <c r="G190" s="81"/>
-      <c r="H190" s="81"/>
+      <c r="C190" s="83"/>
+      <c r="D190" s="83"/>
+      <c r="E190" s="85"/>
+      <c r="F190" s="83"/>
+      <c r="G190" s="83"/>
+      <c r="H190" s="83"/>
       <c r="I190" s="67"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -4889,12 +4894,12 @@
       <c r="B191" s="65">
         <v>189</v>
       </c>
-      <c r="C191" s="81"/>
-      <c r="D191" s="81"/>
-      <c r="E191" s="83"/>
-      <c r="F191" s="81"/>
-      <c r="G191" s="81"/>
-      <c r="H191" s="81"/>
+      <c r="C191" s="83"/>
+      <c r="D191" s="83"/>
+      <c r="E191" s="85"/>
+      <c r="F191" s="83"/>
+      <c r="G191" s="83"/>
+      <c r="H191" s="83"/>
       <c r="I191" s="67"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -4904,12 +4909,12 @@
       <c r="B192" s="65">
         <v>190</v>
       </c>
-      <c r="C192" s="81"/>
-      <c r="D192" s="81"/>
-      <c r="E192" s="83"/>
-      <c r="F192" s="81"/>
-      <c r="G192" s="81"/>
-      <c r="H192" s="81"/>
+      <c r="C192" s="83"/>
+      <c r="D192" s="83"/>
+      <c r="E192" s="85"/>
+      <c r="F192" s="83"/>
+      <c r="G192" s="83"/>
+      <c r="H192" s="83"/>
       <c r="I192" s="67"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -4919,12 +4924,12 @@
       <c r="B193" s="65">
         <v>191</v>
       </c>
-      <c r="C193" s="81"/>
-      <c r="D193" s="81"/>
-      <c r="E193" s="84"/>
-      <c r="F193" s="81"/>
-      <c r="G193" s="81"/>
-      <c r="H193" s="81"/>
+      <c r="C193" s="83"/>
+      <c r="D193" s="83"/>
+      <c r="E193" s="86"/>
+      <c r="F193" s="83"/>
+      <c r="G193" s="83"/>
+      <c r="H193" s="83"/>
       <c r="I193" s="67"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -4934,12 +4939,12 @@
       <c r="B194" s="65">
         <v>192</v>
       </c>
-      <c r="C194" s="81"/>
-      <c r="D194" s="82"/>
-      <c r="E194" s="81"/>
-      <c r="F194" s="81"/>
-      <c r="G194" s="81"/>
-      <c r="H194" s="81"/>
+      <c r="C194" s="83"/>
+      <c r="D194" s="84"/>
+      <c r="E194" s="83"/>
+      <c r="F194" s="83"/>
+      <c r="G194" s="83"/>
+      <c r="H194" s="83"/>
       <c r="I194" s="67"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -4949,12 +4954,12 @@
       <c r="B195" s="65">
         <v>193</v>
       </c>
-      <c r="C195" s="81"/>
-      <c r="D195" s="83"/>
-      <c r="E195" s="81"/>
-      <c r="F195" s="81"/>
-      <c r="G195" s="81"/>
-      <c r="H195" s="81"/>
+      <c r="C195" s="83"/>
+      <c r="D195" s="85"/>
+      <c r="E195" s="83"/>
+      <c r="F195" s="83"/>
+      <c r="G195" s="83"/>
+      <c r="H195" s="83"/>
       <c r="I195" s="67"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -4964,12 +4969,12 @@
       <c r="B196" s="65">
         <v>194</v>
       </c>
-      <c r="C196" s="81"/>
-      <c r="D196" s="83"/>
-      <c r="E196" s="81"/>
-      <c r="F196" s="81"/>
-      <c r="G196" s="81"/>
-      <c r="H196" s="81"/>
+      <c r="C196" s="83"/>
+      <c r="D196" s="85"/>
+      <c r="E196" s="83"/>
+      <c r="F196" s="83"/>
+      <c r="G196" s="83"/>
+      <c r="H196" s="83"/>
       <c r="I196" s="67"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -4979,12 +4984,12 @@
       <c r="B197" s="65">
         <v>195</v>
       </c>
-      <c r="C197" s="81"/>
-      <c r="D197" s="83"/>
-      <c r="E197" s="81"/>
-      <c r="F197" s="81"/>
-      <c r="G197" s="81"/>
-      <c r="H197" s="81"/>
+      <c r="C197" s="83"/>
+      <c r="D197" s="85"/>
+      <c r="E197" s="83"/>
+      <c r="F197" s="83"/>
+      <c r="G197" s="83"/>
+      <c r="H197" s="83"/>
       <c r="I197" s="67"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -4994,12 +4999,12 @@
       <c r="B198" s="65">
         <v>196</v>
       </c>
-      <c r="C198" s="81"/>
-      <c r="D198" s="83"/>
-      <c r="E198" s="81"/>
-      <c r="F198" s="81"/>
-      <c r="G198" s="81"/>
-      <c r="H198" s="81"/>
+      <c r="C198" s="83"/>
+      <c r="D198" s="85"/>
+      <c r="E198" s="83"/>
+      <c r="F198" s="83"/>
+      <c r="G198" s="83"/>
+      <c r="H198" s="83"/>
       <c r="I198" s="67"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -5009,12 +5014,12 @@
       <c r="B199" s="65">
         <v>197</v>
       </c>
-      <c r="C199" s="81"/>
-      <c r="D199" s="83"/>
-      <c r="E199" s="81"/>
-      <c r="F199" s="81"/>
-      <c r="G199" s="81"/>
-      <c r="H199" s="81"/>
+      <c r="C199" s="83"/>
+      <c r="D199" s="85"/>
+      <c r="E199" s="83"/>
+      <c r="F199" s="83"/>
+      <c r="G199" s="83"/>
+      <c r="H199" s="83"/>
       <c r="I199" s="67"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -5024,12 +5029,12 @@
       <c r="B200" s="65">
         <v>198</v>
       </c>
-      <c r="C200" s="81"/>
-      <c r="D200" s="83"/>
-      <c r="E200" s="81"/>
-      <c r="F200" s="81"/>
-      <c r="G200" s="81"/>
-      <c r="H200" s="81"/>
+      <c r="C200" s="83"/>
+      <c r="D200" s="85"/>
+      <c r="E200" s="83"/>
+      <c r="F200" s="83"/>
+      <c r="G200" s="83"/>
+      <c r="H200" s="83"/>
       <c r="I200" s="67"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -5039,12 +5044,12 @@
       <c r="B201" s="65">
         <v>199</v>
       </c>
-      <c r="C201" s="81"/>
-      <c r="D201" s="84"/>
-      <c r="E201" s="81"/>
-      <c r="F201" s="81"/>
-      <c r="G201" s="81"/>
-      <c r="H201" s="81"/>
+      <c r="C201" s="83"/>
+      <c r="D201" s="86"/>
+      <c r="E201" s="83"/>
+      <c r="F201" s="83"/>
+      <c r="G201" s="83"/>
+      <c r="H201" s="83"/>
       <c r="I201" s="67"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -5054,12 +5059,12 @@
       <c r="B202" s="65">
         <v>200</v>
       </c>
-      <c r="C202" s="82"/>
-      <c r="D202" s="85"/>
-      <c r="E202" s="81"/>
-      <c r="F202" s="81"/>
-      <c r="G202" s="81"/>
-      <c r="H202" s="81"/>
+      <c r="C202" s="84"/>
+      <c r="D202" s="114"/>
+      <c r="E202" s="83"/>
+      <c r="F202" s="83"/>
+      <c r="G202" s="83"/>
+      <c r="H202" s="83"/>
       <c r="I202" s="67"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -5069,12 +5074,12 @@
       <c r="B203" s="65">
         <v>201</v>
       </c>
-      <c r="C203" s="83"/>
-      <c r="D203" s="86"/>
-      <c r="E203" s="81"/>
-      <c r="F203" s="81"/>
-      <c r="G203" s="81"/>
-      <c r="H203" s="81"/>
+      <c r="C203" s="85"/>
+      <c r="D203" s="115"/>
+      <c r="E203" s="83"/>
+      <c r="F203" s="83"/>
+      <c r="G203" s="83"/>
+      <c r="H203" s="83"/>
       <c r="I203" s="67"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -5084,12 +5089,12 @@
       <c r="B204" s="65">
         <v>202</v>
       </c>
-      <c r="C204" s="83"/>
-      <c r="D204" s="86"/>
-      <c r="E204" s="81"/>
-      <c r="F204" s="81"/>
-      <c r="G204" s="81"/>
-      <c r="H204" s="81"/>
+      <c r="C204" s="85"/>
+      <c r="D204" s="115"/>
+      <c r="E204" s="83"/>
+      <c r="F204" s="83"/>
+      <c r="G204" s="83"/>
+      <c r="H204" s="83"/>
       <c r="I204" s="67"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -5099,12 +5104,12 @@
       <c r="B205" s="65">
         <v>203</v>
       </c>
-      <c r="C205" s="84"/>
-      <c r="D205" s="86"/>
-      <c r="E205" s="81"/>
-      <c r="F205" s="81"/>
-      <c r="G205" s="81"/>
-      <c r="H205" s="81"/>
+      <c r="C205" s="86"/>
+      <c r="D205" s="115"/>
+      <c r="E205" s="83"/>
+      <c r="F205" s="83"/>
+      <c r="G205" s="83"/>
+      <c r="H205" s="83"/>
       <c r="I205" s="67"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -5114,12 +5119,12 @@
       <c r="B206" s="65">
         <v>204</v>
       </c>
-      <c r="C206" s="82"/>
-      <c r="D206" s="86"/>
-      <c r="E206" s="81"/>
-      <c r="F206" s="81"/>
-      <c r="G206" s="81"/>
-      <c r="H206" s="81"/>
+      <c r="C206" s="84"/>
+      <c r="D206" s="115"/>
+      <c r="E206" s="83"/>
+      <c r="F206" s="83"/>
+      <c r="G206" s="83"/>
+      <c r="H206" s="83"/>
       <c r="I206" s="67"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -5129,12 +5134,12 @@
       <c r="B207" s="65">
         <v>205</v>
       </c>
-      <c r="C207" s="83"/>
-      <c r="D207" s="86"/>
-      <c r="E207" s="81"/>
-      <c r="F207" s="81"/>
-      <c r="G207" s="81"/>
-      <c r="H207" s="81"/>
+      <c r="C207" s="85"/>
+      <c r="D207" s="115"/>
+      <c r="E207" s="83"/>
+      <c r="F207" s="83"/>
+      <c r="G207" s="83"/>
+      <c r="H207" s="83"/>
       <c r="I207" s="67"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -5144,12 +5149,12 @@
       <c r="B208" s="65">
         <v>206</v>
       </c>
-      <c r="C208" s="83"/>
-      <c r="D208" s="86"/>
-      <c r="E208" s="81"/>
-      <c r="F208" s="81"/>
-      <c r="G208" s="81"/>
-      <c r="H208" s="81"/>
+      <c r="C208" s="85"/>
+      <c r="D208" s="115"/>
+      <c r="E208" s="83"/>
+      <c r="F208" s="83"/>
+      <c r="G208" s="83"/>
+      <c r="H208" s="83"/>
       <c r="I208" s="67"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -5159,12 +5164,12 @@
       <c r="B209" s="65">
         <v>207</v>
       </c>
-      <c r="C209" s="84"/>
-      <c r="D209" s="87"/>
-      <c r="E209" s="81"/>
-      <c r="F209" s="81"/>
-      <c r="G209" s="81"/>
-      <c r="H209" s="81"/>
+      <c r="C209" s="86"/>
+      <c r="D209" s="116"/>
+      <c r="E209" s="83"/>
+      <c r="F209" s="83"/>
+      <c r="G209" s="83"/>
+      <c r="H209" s="83"/>
       <c r="I209" s="67"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -5174,12 +5179,12 @@
       <c r="B210" s="65">
         <v>208</v>
       </c>
-      <c r="C210" s="88"/>
-      <c r="D210" s="91"/>
-      <c r="E210" s="91"/>
-      <c r="F210" s="81"/>
-      <c r="G210" s="81"/>
-      <c r="H210" s="81"/>
+      <c r="C210" s="108"/>
+      <c r="D210" s="87"/>
+      <c r="E210" s="87"/>
+      <c r="F210" s="83"/>
+      <c r="G210" s="83"/>
+      <c r="H210" s="83"/>
       <c r="I210" s="67"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -5189,12 +5194,12 @@
       <c r="B211" s="65">
         <v>209</v>
       </c>
-      <c r="C211" s="89"/>
-      <c r="D211" s="92"/>
-      <c r="E211" s="92"/>
-      <c r="F211" s="81"/>
-      <c r="G211" s="81"/>
-      <c r="H211" s="81"/>
+      <c r="C211" s="109"/>
+      <c r="D211" s="88"/>
+      <c r="E211" s="88"/>
+      <c r="F211" s="83"/>
+      <c r="G211" s="83"/>
+      <c r="H211" s="83"/>
       <c r="I211" s="67"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -5204,12 +5209,12 @@
       <c r="B212" s="65">
         <v>210</v>
       </c>
-      <c r="C212" s="89"/>
-      <c r="D212" s="92"/>
-      <c r="E212" s="92"/>
-      <c r="F212" s="81"/>
-      <c r="G212" s="81"/>
-      <c r="H212" s="81"/>
+      <c r="C212" s="109"/>
+      <c r="D212" s="88"/>
+      <c r="E212" s="88"/>
+      <c r="F212" s="83"/>
+      <c r="G212" s="83"/>
+      <c r="H212" s="83"/>
       <c r="I212" s="67"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -5219,12 +5224,12 @@
       <c r="B213" s="65">
         <v>211</v>
       </c>
-      <c r="C213" s="90"/>
-      <c r="D213" s="92"/>
-      <c r="E213" s="92"/>
-      <c r="F213" s="81"/>
-      <c r="G213" s="81"/>
-      <c r="H213" s="81"/>
+      <c r="C213" s="110"/>
+      <c r="D213" s="88"/>
+      <c r="E213" s="88"/>
+      <c r="F213" s="83"/>
+      <c r="G213" s="83"/>
+      <c r="H213" s="83"/>
       <c r="I213" s="67"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -5234,12 +5239,12 @@
       <c r="B214" s="65">
         <v>212</v>
       </c>
-      <c r="C214" s="88"/>
-      <c r="D214" s="92"/>
-      <c r="E214" s="92"/>
-      <c r="F214" s="81"/>
-      <c r="G214" s="81"/>
-      <c r="H214" s="81"/>
+      <c r="C214" s="108"/>
+      <c r="D214" s="88"/>
+      <c r="E214" s="88"/>
+      <c r="F214" s="83"/>
+      <c r="G214" s="83"/>
+      <c r="H214" s="83"/>
       <c r="I214" s="67"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -5249,12 +5254,12 @@
       <c r="B215" s="65">
         <v>213</v>
       </c>
-      <c r="C215" s="89"/>
-      <c r="D215" s="92"/>
-      <c r="E215" s="92"/>
-      <c r="F215" s="81"/>
-      <c r="G215" s="81"/>
-      <c r="H215" s="81"/>
+      <c r="C215" s="109"/>
+      <c r="D215" s="88"/>
+      <c r="E215" s="88"/>
+      <c r="F215" s="83"/>
+      <c r="G215" s="83"/>
+      <c r="H215" s="83"/>
       <c r="I215" s="67"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -5264,12 +5269,12 @@
       <c r="B216" s="65">
         <v>214</v>
       </c>
-      <c r="C216" s="89"/>
-      <c r="D216" s="92"/>
-      <c r="E216" s="92"/>
-      <c r="F216" s="81"/>
-      <c r="G216" s="81"/>
-      <c r="H216" s="81"/>
+      <c r="C216" s="109"/>
+      <c r="D216" s="88"/>
+      <c r="E216" s="88"/>
+      <c r="F216" s="83"/>
+      <c r="G216" s="83"/>
+      <c r="H216" s="83"/>
       <c r="I216" s="67"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -5279,12 +5284,12 @@
       <c r="B217" s="65">
         <v>215</v>
       </c>
-      <c r="C217" s="90"/>
-      <c r="D217" s="93"/>
-      <c r="E217" s="92"/>
-      <c r="F217" s="81"/>
-      <c r="G217" s="81"/>
-      <c r="H217" s="81"/>
+      <c r="C217" s="110"/>
+      <c r="D217" s="89"/>
+      <c r="E217" s="88"/>
+      <c r="F217" s="83"/>
+      <c r="G217" s="83"/>
+      <c r="H217" s="83"/>
       <c r="I217" s="67"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -5294,12 +5299,12 @@
       <c r="B218" s="65">
         <v>216</v>
       </c>
-      <c r="C218" s="82"/>
-      <c r="D218" s="100"/>
-      <c r="E218" s="92"/>
-      <c r="F218" s="81"/>
-      <c r="G218" s="81"/>
-      <c r="H218" s="81"/>
+      <c r="C218" s="84"/>
+      <c r="D218" s="105"/>
+      <c r="E218" s="88"/>
+      <c r="F218" s="83"/>
+      <c r="G218" s="83"/>
+      <c r="H218" s="83"/>
       <c r="I218" s="67"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -5309,12 +5314,12 @@
       <c r="B219" s="65">
         <v>217</v>
       </c>
-      <c r="C219" s="83"/>
-      <c r="D219" s="101"/>
-      <c r="E219" s="92"/>
-      <c r="F219" s="81"/>
-      <c r="G219" s="81"/>
-      <c r="H219" s="81"/>
+      <c r="C219" s="85"/>
+      <c r="D219" s="106"/>
+      <c r="E219" s="88"/>
+      <c r="F219" s="83"/>
+      <c r="G219" s="83"/>
+      <c r="H219" s="83"/>
       <c r="I219" s="67"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -5324,12 +5329,12 @@
       <c r="B220" s="65">
         <v>218</v>
       </c>
-      <c r="C220" s="83"/>
-      <c r="D220" s="101"/>
-      <c r="E220" s="92"/>
-      <c r="F220" s="81"/>
-      <c r="G220" s="81"/>
-      <c r="H220" s="81"/>
+      <c r="C220" s="85"/>
+      <c r="D220" s="106"/>
+      <c r="E220" s="88"/>
+      <c r="F220" s="83"/>
+      <c r="G220" s="83"/>
+      <c r="H220" s="83"/>
       <c r="I220" s="67"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -5339,12 +5344,12 @@
       <c r="B221" s="65">
         <v>219</v>
       </c>
-      <c r="C221" s="84"/>
-      <c r="D221" s="101"/>
-      <c r="E221" s="92"/>
-      <c r="F221" s="81"/>
-      <c r="G221" s="81"/>
-      <c r="H221" s="81"/>
+      <c r="C221" s="86"/>
+      <c r="D221" s="106"/>
+      <c r="E221" s="88"/>
+      <c r="F221" s="83"/>
+      <c r="G221" s="83"/>
+      <c r="H221" s="83"/>
       <c r="I221" s="67"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -5354,12 +5359,12 @@
       <c r="B222" s="65">
         <v>220</v>
       </c>
-      <c r="C222" s="82"/>
-      <c r="D222" s="101"/>
-      <c r="E222" s="92"/>
-      <c r="F222" s="81"/>
-      <c r="G222" s="81"/>
-      <c r="H222" s="81"/>
+      <c r="C222" s="84"/>
+      <c r="D222" s="106"/>
+      <c r="E222" s="88"/>
+      <c r="F222" s="83"/>
+      <c r="G222" s="83"/>
+      <c r="H222" s="83"/>
       <c r="I222" s="67"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -5369,12 +5374,12 @@
       <c r="B223" s="65">
         <v>221</v>
       </c>
-      <c r="C223" s="83"/>
-      <c r="D223" s="101"/>
-      <c r="E223" s="92"/>
-      <c r="F223" s="81"/>
-      <c r="G223" s="81"/>
-      <c r="H223" s="81"/>
+      <c r="C223" s="85"/>
+      <c r="D223" s="106"/>
+      <c r="E223" s="88"/>
+      <c r="F223" s="83"/>
+      <c r="G223" s="83"/>
+      <c r="H223" s="83"/>
       <c r="I223" s="67"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -5384,12 +5389,12 @@
       <c r="B224" s="65">
         <v>222</v>
       </c>
-      <c r="C224" s="83"/>
-      <c r="D224" s="101"/>
-      <c r="E224" s="92"/>
-      <c r="F224" s="81"/>
-      <c r="G224" s="81"/>
-      <c r="H224" s="81"/>
+      <c r="C224" s="85"/>
+      <c r="D224" s="106"/>
+      <c r="E224" s="88"/>
+      <c r="F224" s="83"/>
+      <c r="G224" s="83"/>
+      <c r="H224" s="83"/>
       <c r="I224" s="67"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -5399,12 +5404,12 @@
       <c r="B225" s="65">
         <v>223</v>
       </c>
-      <c r="C225" s="84"/>
-      <c r="D225" s="102"/>
-      <c r="E225" s="93"/>
-      <c r="F225" s="81"/>
-      <c r="G225" s="81"/>
-      <c r="H225" s="81"/>
+      <c r="C225" s="86"/>
+      <c r="D225" s="107"/>
+      <c r="E225" s="89"/>
+      <c r="F225" s="83"/>
+      <c r="G225" s="83"/>
+      <c r="H225" s="83"/>
       <c r="I225" s="67"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -5414,12 +5419,12 @@
       <c r="B226" s="68">
         <v>224</v>
       </c>
-      <c r="C226" s="88"/>
-      <c r="D226" s="94"/>
-      <c r="E226" s="81"/>
-      <c r="F226" s="81"/>
-      <c r="G226" s="81"/>
-      <c r="H226" s="81"/>
+      <c r="C226" s="108"/>
+      <c r="D226" s="111"/>
+      <c r="E226" s="83"/>
+      <c r="F226" s="83"/>
+      <c r="G226" s="83"/>
+      <c r="H226" s="83"/>
       <c r="I226" s="67"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -5429,12 +5434,12 @@
       <c r="B227" s="68">
         <v>225</v>
       </c>
-      <c r="C227" s="89"/>
-      <c r="D227" s="95"/>
-      <c r="E227" s="81"/>
-      <c r="F227" s="81"/>
-      <c r="G227" s="81"/>
-      <c r="H227" s="81"/>
+      <c r="C227" s="109"/>
+      <c r="D227" s="112"/>
+      <c r="E227" s="83"/>
+      <c r="F227" s="83"/>
+      <c r="G227" s="83"/>
+      <c r="H227" s="83"/>
       <c r="I227" s="67"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -5444,12 +5449,12 @@
       <c r="B228" s="68">
         <v>226</v>
       </c>
-      <c r="C228" s="89"/>
-      <c r="D228" s="95"/>
-      <c r="E228" s="81"/>
-      <c r="F228" s="81"/>
-      <c r="G228" s="81"/>
-      <c r="H228" s="81"/>
+      <c r="C228" s="109"/>
+      <c r="D228" s="112"/>
+      <c r="E228" s="83"/>
+      <c r="F228" s="83"/>
+      <c r="G228" s="83"/>
+      <c r="H228" s="83"/>
       <c r="I228" s="67"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -5459,12 +5464,12 @@
       <c r="B229" s="68">
         <v>227</v>
       </c>
-      <c r="C229" s="90"/>
-      <c r="D229" s="95"/>
-      <c r="E229" s="81"/>
-      <c r="F229" s="81"/>
-      <c r="G229" s="81"/>
-      <c r="H229" s="81"/>
+      <c r="C229" s="110"/>
+      <c r="D229" s="112"/>
+      <c r="E229" s="83"/>
+      <c r="F229" s="83"/>
+      <c r="G229" s="83"/>
+      <c r="H229" s="83"/>
       <c r="I229" s="67"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -5474,12 +5479,12 @@
       <c r="B230" s="68">
         <v>228</v>
       </c>
-      <c r="C230" s="82"/>
-      <c r="D230" s="95"/>
-      <c r="E230" s="81"/>
-      <c r="F230" s="81"/>
-      <c r="G230" s="81"/>
-      <c r="H230" s="81"/>
+      <c r="C230" s="84"/>
+      <c r="D230" s="112"/>
+      <c r="E230" s="83"/>
+      <c r="F230" s="83"/>
+      <c r="G230" s="83"/>
+      <c r="H230" s="83"/>
       <c r="I230" s="67"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -5489,12 +5494,12 @@
       <c r="B231" s="68">
         <v>229</v>
       </c>
-      <c r="C231" s="83"/>
-      <c r="D231" s="95"/>
-      <c r="E231" s="81"/>
-      <c r="F231" s="81"/>
-      <c r="G231" s="81"/>
-      <c r="H231" s="81"/>
+      <c r="C231" s="85"/>
+      <c r="D231" s="112"/>
+      <c r="E231" s="83"/>
+      <c r="F231" s="83"/>
+      <c r="G231" s="83"/>
+      <c r="H231" s="83"/>
       <c r="I231" s="67"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -5504,12 +5509,12 @@
       <c r="B232" s="68">
         <v>230</v>
       </c>
-      <c r="C232" s="83"/>
-      <c r="D232" s="95"/>
-      <c r="E232" s="81"/>
-      <c r="F232" s="81"/>
-      <c r="G232" s="81"/>
-      <c r="H232" s="81"/>
+      <c r="C232" s="85"/>
+      <c r="D232" s="112"/>
+      <c r="E232" s="83"/>
+      <c r="F232" s="83"/>
+      <c r="G232" s="83"/>
+      <c r="H232" s="83"/>
       <c r="I232" s="67"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -5519,12 +5524,12 @@
       <c r="B233" s="68">
         <v>231</v>
       </c>
-      <c r="C233" s="84"/>
-      <c r="D233" s="96"/>
-      <c r="E233" s="81"/>
-      <c r="F233" s="81"/>
-      <c r="G233" s="81"/>
-      <c r="H233" s="81"/>
+      <c r="C233" s="86"/>
+      <c r="D233" s="113"/>
+      <c r="E233" s="83"/>
+      <c r="F233" s="83"/>
+      <c r="G233" s="83"/>
+      <c r="H233" s="83"/>
       <c r="I233" s="67"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -5534,12 +5539,12 @@
       <c r="B234" s="65">
         <v>232</v>
       </c>
-      <c r="C234" s="94"/>
-      <c r="D234" s="81"/>
-      <c r="E234" s="81"/>
-      <c r="F234" s="81"/>
-      <c r="G234" s="81"/>
-      <c r="H234" s="81"/>
+      <c r="C234" s="111"/>
+      <c r="D234" s="83"/>
+      <c r="E234" s="83"/>
+      <c r="F234" s="83"/>
+      <c r="G234" s="83"/>
+      <c r="H234" s="83"/>
       <c r="I234" s="67"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -5549,12 +5554,12 @@
       <c r="B235" s="65">
         <v>233</v>
       </c>
-      <c r="C235" s="95"/>
-      <c r="D235" s="81"/>
-      <c r="E235" s="81"/>
-      <c r="F235" s="81"/>
-      <c r="G235" s="81"/>
-      <c r="H235" s="81"/>
+      <c r="C235" s="112"/>
+      <c r="D235" s="83"/>
+      <c r="E235" s="83"/>
+      <c r="F235" s="83"/>
+      <c r="G235" s="83"/>
+      <c r="H235" s="83"/>
       <c r="I235" s="67"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -5564,12 +5569,12 @@
       <c r="B236" s="65">
         <v>234</v>
       </c>
-      <c r="C236" s="95"/>
-      <c r="D236" s="81"/>
-      <c r="E236" s="81"/>
-      <c r="F236" s="81"/>
-      <c r="G236" s="81"/>
-      <c r="H236" s="81"/>
+      <c r="C236" s="112"/>
+      <c r="D236" s="83"/>
+      <c r="E236" s="83"/>
+      <c r="F236" s="83"/>
+      <c r="G236" s="83"/>
+      <c r="H236" s="83"/>
       <c r="I236" s="67"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -5579,12 +5584,12 @@
       <c r="B237" s="65">
         <v>235</v>
       </c>
-      <c r="C237" s="96"/>
-      <c r="D237" s="81"/>
-      <c r="E237" s="81"/>
-      <c r="F237" s="81"/>
-      <c r="G237" s="81"/>
-      <c r="H237" s="81"/>
+      <c r="C237" s="113"/>
+      <c r="D237" s="83"/>
+      <c r="E237" s="83"/>
+      <c r="F237" s="83"/>
+      <c r="G237" s="83"/>
+      <c r="H237" s="83"/>
       <c r="I237" s="67"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -5594,12 +5599,12 @@
       <c r="B238" s="65">
         <v>236</v>
       </c>
-      <c r="C238" s="81"/>
-      <c r="D238" s="81"/>
-      <c r="E238" s="81"/>
-      <c r="F238" s="81"/>
-      <c r="G238" s="81"/>
-      <c r="H238" s="81"/>
+      <c r="C238" s="83"/>
+      <c r="D238" s="83"/>
+      <c r="E238" s="83"/>
+      <c r="F238" s="83"/>
+      <c r="G238" s="83"/>
+      <c r="H238" s="83"/>
       <c r="I238" s="67"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -5609,12 +5614,12 @@
       <c r="B239" s="65">
         <v>237</v>
       </c>
-      <c r="C239" s="81"/>
-      <c r="D239" s="81"/>
-      <c r="E239" s="81"/>
-      <c r="F239" s="81"/>
-      <c r="G239" s="81"/>
-      <c r="H239" s="81"/>
+      <c r="C239" s="83"/>
+      <c r="D239" s="83"/>
+      <c r="E239" s="83"/>
+      <c r="F239" s="83"/>
+      <c r="G239" s="83"/>
+      <c r="H239" s="83"/>
       <c r="I239" s="67"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -5624,12 +5629,12 @@
       <c r="B240" s="65">
         <v>238</v>
       </c>
-      <c r="C240" s="81"/>
-      <c r="D240" s="81"/>
-      <c r="E240" s="81"/>
-      <c r="F240" s="81"/>
-      <c r="G240" s="81"/>
-      <c r="H240" s="81"/>
+      <c r="C240" s="83"/>
+      <c r="D240" s="83"/>
+      <c r="E240" s="83"/>
+      <c r="F240" s="83"/>
+      <c r="G240" s="83"/>
+      <c r="H240" s="83"/>
       <c r="I240" s="67"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -5639,12 +5644,12 @@
       <c r="B241" s="65">
         <v>239</v>
       </c>
-      <c r="C241" s="81"/>
-      <c r="D241" s="81"/>
-      <c r="E241" s="81"/>
-      <c r="F241" s="81"/>
-      <c r="G241" s="81"/>
-      <c r="H241" s="81"/>
+      <c r="C241" s="83"/>
+      <c r="D241" s="83"/>
+      <c r="E241" s="83"/>
+      <c r="F241" s="83"/>
+      <c r="G241" s="83"/>
+      <c r="H241" s="83"/>
       <c r="I241" s="67"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -5654,12 +5659,12 @@
       <c r="B242" s="65">
         <v>240</v>
       </c>
-      <c r="C242" s="81"/>
-      <c r="D242" s="81"/>
-      <c r="E242" s="81"/>
-      <c r="F242" s="81"/>
-      <c r="G242" s="81"/>
-      <c r="H242" s="81"/>
+      <c r="C242" s="83"/>
+      <c r="D242" s="83"/>
+      <c r="E242" s="83"/>
+      <c r="F242" s="83"/>
+      <c r="G242" s="83"/>
+      <c r="H242" s="83"/>
       <c r="I242" s="67"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -5669,12 +5674,12 @@
       <c r="B243" s="65">
         <v>241</v>
       </c>
-      <c r="C243" s="81"/>
-      <c r="D243" s="81"/>
-      <c r="E243" s="81"/>
-      <c r="F243" s="81"/>
-      <c r="G243" s="81"/>
-      <c r="H243" s="81"/>
+      <c r="C243" s="83"/>
+      <c r="D243" s="83"/>
+      <c r="E243" s="83"/>
+      <c r="F243" s="83"/>
+      <c r="G243" s="83"/>
+      <c r="H243" s="83"/>
       <c r="I243" s="67"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -5684,12 +5689,12 @@
       <c r="B244" s="65">
         <v>242</v>
       </c>
-      <c r="C244" s="81"/>
-      <c r="D244" s="81"/>
-      <c r="E244" s="81"/>
-      <c r="F244" s="81"/>
-      <c r="G244" s="81"/>
-      <c r="H244" s="81"/>
+      <c r="C244" s="83"/>
+      <c r="D244" s="83"/>
+      <c r="E244" s="83"/>
+      <c r="F244" s="83"/>
+      <c r="G244" s="83"/>
+      <c r="H244" s="83"/>
       <c r="I244" s="67"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -5699,12 +5704,12 @@
       <c r="B245" s="65">
         <v>243</v>
       </c>
-      <c r="C245" s="81"/>
-      <c r="D245" s="81"/>
-      <c r="E245" s="81"/>
-      <c r="F245" s="81"/>
-      <c r="G245" s="81"/>
-      <c r="H245" s="81"/>
+      <c r="C245" s="83"/>
+      <c r="D245" s="83"/>
+      <c r="E245" s="83"/>
+      <c r="F245" s="83"/>
+      <c r="G245" s="83"/>
+      <c r="H245" s="83"/>
       <c r="I245" s="67"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -5714,12 +5719,12 @@
       <c r="B246" s="65">
         <v>244</v>
       </c>
-      <c r="C246" s="81"/>
-      <c r="D246" s="81"/>
-      <c r="E246" s="81"/>
-      <c r="F246" s="81"/>
-      <c r="G246" s="81"/>
-      <c r="H246" s="81"/>
+      <c r="C246" s="83"/>
+      <c r="D246" s="83"/>
+      <c r="E246" s="83"/>
+      <c r="F246" s="83"/>
+      <c r="G246" s="83"/>
+      <c r="H246" s="83"/>
       <c r="I246" s="67"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -5729,12 +5734,12 @@
       <c r="B247" s="65">
         <v>245</v>
       </c>
-      <c r="C247" s="81"/>
-      <c r="D247" s="81"/>
-      <c r="E247" s="81"/>
-      <c r="F247" s="81"/>
-      <c r="G247" s="81"/>
-      <c r="H247" s="81"/>
+      <c r="C247" s="83"/>
+      <c r="D247" s="83"/>
+      <c r="E247" s="83"/>
+      <c r="F247" s="83"/>
+      <c r="G247" s="83"/>
+      <c r="H247" s="83"/>
       <c r="I247" s="67"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -5744,12 +5749,12 @@
       <c r="B248" s="65">
         <v>246</v>
       </c>
-      <c r="C248" s="81"/>
-      <c r="D248" s="81"/>
-      <c r="E248" s="81"/>
-      <c r="F248" s="81"/>
-      <c r="G248" s="81"/>
-      <c r="H248" s="81"/>
+      <c r="C248" s="83"/>
+      <c r="D248" s="83"/>
+      <c r="E248" s="83"/>
+      <c r="F248" s="83"/>
+      <c r="G248" s="83"/>
+      <c r="H248" s="83"/>
       <c r="I248" s="67"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -5759,12 +5764,12 @@
       <c r="B249" s="65">
         <v>247</v>
       </c>
-      <c r="C249" s="81"/>
-      <c r="D249" s="81"/>
-      <c r="E249" s="81"/>
-      <c r="F249" s="81"/>
-      <c r="G249" s="81"/>
-      <c r="H249" s="81"/>
+      <c r="C249" s="83"/>
+      <c r="D249" s="83"/>
+      <c r="E249" s="83"/>
+      <c r="F249" s="83"/>
+      <c r="G249" s="83"/>
+      <c r="H249" s="83"/>
       <c r="I249" s="67"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -5774,12 +5779,12 @@
       <c r="B250" s="65">
         <v>248</v>
       </c>
-      <c r="C250" s="81"/>
-      <c r="D250" s="81"/>
-      <c r="E250" s="81"/>
-      <c r="F250" s="81"/>
-      <c r="G250" s="81"/>
-      <c r="H250" s="81"/>
+      <c r="C250" s="83"/>
+      <c r="D250" s="83"/>
+      <c r="E250" s="83"/>
+      <c r="F250" s="83"/>
+      <c r="G250" s="83"/>
+      <c r="H250" s="83"/>
       <c r="I250" s="67"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -5789,12 +5794,12 @@
       <c r="B251" s="65">
         <v>249</v>
       </c>
-      <c r="C251" s="81"/>
-      <c r="D251" s="81"/>
-      <c r="E251" s="81"/>
-      <c r="F251" s="81"/>
-      <c r="G251" s="81"/>
-      <c r="H251" s="81"/>
+      <c r="C251" s="83"/>
+      <c r="D251" s="83"/>
+      <c r="E251" s="83"/>
+      <c r="F251" s="83"/>
+      <c r="G251" s="83"/>
+      <c r="H251" s="83"/>
       <c r="I251" s="67"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -5804,12 +5809,12 @@
       <c r="B252" s="65">
         <v>250</v>
       </c>
-      <c r="C252" s="81"/>
-      <c r="D252" s="81"/>
-      <c r="E252" s="81"/>
-      <c r="F252" s="81"/>
-      <c r="G252" s="81"/>
-      <c r="H252" s="81"/>
+      <c r="C252" s="83"/>
+      <c r="D252" s="83"/>
+      <c r="E252" s="83"/>
+      <c r="F252" s="83"/>
+      <c r="G252" s="83"/>
+      <c r="H252" s="83"/>
       <c r="I252" s="67"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -5819,12 +5824,12 @@
       <c r="B253" s="65">
         <v>251</v>
       </c>
-      <c r="C253" s="81"/>
-      <c r="D253" s="81"/>
-      <c r="E253" s="81"/>
-      <c r="F253" s="81"/>
-      <c r="G253" s="81"/>
-      <c r="H253" s="81"/>
+      <c r="C253" s="83"/>
+      <c r="D253" s="83"/>
+      <c r="E253" s="83"/>
+      <c r="F253" s="83"/>
+      <c r="G253" s="83"/>
+      <c r="H253" s="83"/>
       <c r="I253" s="67"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -5834,12 +5839,12 @@
       <c r="B254" s="65">
         <v>252</v>
       </c>
-      <c r="C254" s="81"/>
-      <c r="D254" s="81"/>
-      <c r="E254" s="81"/>
-      <c r="F254" s="81"/>
-      <c r="G254" s="81"/>
-      <c r="H254" s="81"/>
+      <c r="C254" s="83"/>
+      <c r="D254" s="83"/>
+      <c r="E254" s="83"/>
+      <c r="F254" s="83"/>
+      <c r="G254" s="83"/>
+      <c r="H254" s="83"/>
       <c r="I254" s="67"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -5849,12 +5854,12 @@
       <c r="B255" s="65">
         <v>253</v>
       </c>
-      <c r="C255" s="81"/>
-      <c r="D255" s="81"/>
-      <c r="E255" s="81"/>
-      <c r="F255" s="81"/>
-      <c r="G255" s="81"/>
-      <c r="H255" s="81"/>
+      <c r="C255" s="83"/>
+      <c r="D255" s="83"/>
+      <c r="E255" s="83"/>
+      <c r="F255" s="83"/>
+      <c r="G255" s="83"/>
+      <c r="H255" s="83"/>
       <c r="I255" s="67"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -5864,12 +5869,12 @@
       <c r="B256" s="65">
         <v>254</v>
       </c>
-      <c r="C256" s="81"/>
-      <c r="D256" s="81"/>
-      <c r="E256" s="81"/>
-      <c r="F256" s="81"/>
-      <c r="G256" s="81"/>
-      <c r="H256" s="81"/>
+      <c r="C256" s="83"/>
+      <c r="D256" s="83"/>
+      <c r="E256" s="83"/>
+      <c r="F256" s="83"/>
+      <c r="G256" s="83"/>
+      <c r="H256" s="83"/>
       <c r="I256" s="67"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -5879,16 +5884,118 @@
       <c r="B257" s="67">
         <v>255</v>
       </c>
-      <c r="C257" s="81"/>
-      <c r="D257" s="81"/>
-      <c r="E257" s="81"/>
-      <c r="F257" s="81"/>
-      <c r="G257" s="81"/>
-      <c r="H257" s="81"/>
+      <c r="C257" s="83"/>
+      <c r="D257" s="83"/>
+      <c r="E257" s="83"/>
+      <c r="F257" s="83"/>
+      <c r="G257" s="83"/>
+      <c r="H257" s="83"/>
       <c r="I257" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="E194:E209"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="G130:G193"/>
+    <mergeCell ref="H130:H257"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D105"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="E146:E161"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="E66:E81"/>
     <mergeCell ref="E2:E17"/>
     <mergeCell ref="C54:C57"/>
     <mergeCell ref="C34:C37"/>
@@ -5913,108 +6020,6 @@
     <mergeCell ref="D18:D25"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="E146:E161"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D105"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="G130:G193"/>
-    <mergeCell ref="H130:H257"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="G194:G257"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="E194:E209"/>
-    <mergeCell ref="D194:D201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6025,7 +6030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAEE99A-983B-43BA-8430-03422792E15E}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
@@ -6045,10 +6050,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="126" t="s">
         <v>152</v>
       </c>
       <c r="C1" s="52">
@@ -6057,10 +6062,10 @@
       <c r="D1" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="128" t="s">
         <v>155</v>
       </c>
       <c r="H1" s="57">
@@ -6069,10 +6074,10 @@
       <c r="I1" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="130" t="s">
+      <c r="K1" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="137" t="s">
+      <c r="L1" s="127" t="s">
         <v>153</v>
       </c>
       <c r="M1" s="55">
@@ -6081,10 +6086,10 @@
       <c r="N1" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="124" t="s">
+      <c r="P1" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="114" t="s">
+      <c r="Q1" s="137" t="s">
         <v>154</v>
       </c>
       <c r="R1" s="54">
@@ -6093,10 +6098,10 @@
       <c r="S1" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="U1" s="132" t="s">
+      <c r="U1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="139" t="s">
+      <c r="V1" s="129" t="s">
         <v>156</v>
       </c>
       <c r="W1" s="59">
@@ -6107,36 +6112,36 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="136"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="52"/>
       <c r="D2" s="42"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="138"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="128"/>
       <c r="H2" s="57">
         <v>2</v>
       </c>
       <c r="I2" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="130"/>
-      <c r="L2" s="137"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="127"/>
       <c r="M2" s="55">
         <v>2</v>
       </c>
       <c r="N2" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="115"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="138"/>
       <c r="R2" s="54">
         <v>2</v>
       </c>
       <c r="S2" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="U2" s="132"/>
-      <c r="V2" s="139"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="129"/>
       <c r="W2" s="59">
         <v>2</v>
       </c>
@@ -6145,36 +6150,36 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="136"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="52"/>
       <c r="D3" s="34"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="138"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="57">
         <v>3</v>
       </c>
       <c r="I3" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="130"/>
-      <c r="L3" s="137"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="127"/>
       <c r="M3" s="55">
         <v>3</v>
       </c>
       <c r="N3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="115"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="138"/>
       <c r="R3" s="54">
         <v>3</v>
       </c>
       <c r="S3" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="U3" s="132"/>
-      <c r="V3" s="139"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="129"/>
       <c r="W3" s="59">
         <v>3</v>
       </c>
@@ -6183,28 +6188,28 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="136"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="52"/>
       <c r="D4" s="34"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="138"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="128"/>
       <c r="H4" s="57">
         <v>4</v>
       </c>
       <c r="I4" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="130"/>
-      <c r="L4" s="137"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="127"/>
       <c r="M4" s="55">
         <v>4</v>
       </c>
       <c r="N4" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="115" t="s">
+      <c r="P4" s="148"/>
+      <c r="Q4" s="138" t="s">
         <v>151</v>
       </c>
       <c r="R4" s="54">
@@ -6213,8 +6218,8 @@
       <c r="S4" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="U4" s="132"/>
-      <c r="V4" s="139"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="129"/>
       <c r="W4" s="59">
         <v>4</v>
       </c>
@@ -6223,36 +6228,36 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="136"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="47"/>
       <c r="D5" s="34"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="138"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="128"/>
       <c r="H5" s="57">
         <v>5</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="130"/>
-      <c r="L5" s="137"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="127"/>
       <c r="M5" s="55">
         <v>5</v>
       </c>
       <c r="N5" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="115"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="138"/>
       <c r="R5" s="54">
         <v>5</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="U5" s="132"/>
-      <c r="V5" s="139"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="129"/>
       <c r="W5" s="59">
         <v>5</v>
       </c>
@@ -6261,36 +6266,36 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="136"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="47"/>
       <c r="D6" s="34"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="138"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="57">
         <v>6</v>
       </c>
       <c r="I6" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="130"/>
-      <c r="L6" s="137"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="127"/>
       <c r="M6" s="55">
         <v>6</v>
       </c>
       <c r="N6" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="115"/>
+      <c r="P6" s="148"/>
+      <c r="Q6" s="138"/>
       <c r="R6" s="54">
         <v>6</v>
       </c>
       <c r="S6" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="U6" s="132"/>
-      <c r="V6" s="139"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="129"/>
       <c r="W6" s="59">
         <v>6</v>
       </c>
@@ -6299,36 +6304,36 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="136"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="47"/>
       <c r="D7" s="34"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="138"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="128"/>
       <c r="H7" s="57">
         <v>7</v>
       </c>
       <c r="I7" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="130"/>
-      <c r="L7" s="137"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="55">
         <v>7</v>
       </c>
       <c r="N7" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="115"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="138"/>
       <c r="R7" s="54">
         <v>7</v>
       </c>
       <c r="S7" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="V7" s="139"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="129"/>
       <c r="W7" s="59">
         <v>7</v>
       </c>
@@ -6337,36 +6342,36 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
-      <c r="B8" s="136"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="47"/>
       <c r="D8" s="34"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="138"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="128"/>
       <c r="H8" s="57">
         <v>8</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="130"/>
-      <c r="L8" s="137"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="127"/>
       <c r="M8" s="55">
         <v>8</v>
       </c>
       <c r="N8" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="115"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="138"/>
       <c r="R8" s="54">
         <v>8</v>
       </c>
       <c r="S8" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="U8" s="132"/>
-      <c r="V8" s="139"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="129"/>
       <c r="W8" s="59">
         <v>8</v>
       </c>
@@ -6375,32 +6380,32 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="136"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="47"/>
       <c r="D9" s="34"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="138"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="128"/>
       <c r="H9" s="57">
         <v>9</v>
       </c>
       <c r="I9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="130"/>
-      <c r="L9" s="137"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="55">
         <v>9</v>
       </c>
       <c r="N9" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="115"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="138"/>
       <c r="R9" s="53"/>
       <c r="S9" s="31"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="139"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="129"/>
       <c r="W9" s="59">
         <v>9</v>
       </c>
@@ -6409,32 +6414,32 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="129"/>
-      <c r="B10" s="136"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="51"/>
       <c r="D10" s="42"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="138"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="128"/>
       <c r="H10" s="57">
         <v>10</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="130"/>
-      <c r="L10" s="137"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="127"/>
       <c r="M10" s="56">
         <v>10</v>
       </c>
       <c r="N10" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="115"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="138"/>
       <c r="R10" s="53"/>
       <c r="S10" s="31"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="139"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="129"/>
       <c r="W10" s="59">
         <v>10</v>
       </c>
@@ -6443,32 +6448,32 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
-      <c r="B11" s="136"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="47"/>
       <c r="D11" s="34"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="138"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="128"/>
       <c r="H11" s="57">
         <v>11</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="K11" s="130"/>
-      <c r="L11" s="137"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="127"/>
       <c r="M11" s="56">
         <v>11</v>
       </c>
       <c r="N11" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="115"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="138"/>
       <c r="R11" s="53"/>
       <c r="S11" s="31"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="139"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="129"/>
       <c r="W11" s="59">
         <v>11</v>
       </c>
@@ -6477,152 +6482,152 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
-      <c r="B12" s="136"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="47"/>
       <c r="D12" s="34"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="138"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="128"/>
       <c r="H12" s="57">
         <v>12</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="130"/>
-      <c r="L12" s="137"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="127"/>
       <c r="M12" s="56">
         <v>12</v>
       </c>
       <c r="N12" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="115"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="138"/>
       <c r="R12" s="53"/>
       <c r="S12" s="31"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="139"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="129"/>
       <c r="W12" s="59"/>
       <c r="X12" s="37"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="136"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="47"/>
       <c r="D13" s="34"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="138"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="128"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="137"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="127"/>
       <c r="M13" s="56">
         <v>13</v>
       </c>
       <c r="N13" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="115"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="138"/>
       <c r="R13" s="53"/>
       <c r="S13" s="31"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="139"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="129"/>
       <c r="W13" s="59"/>
       <c r="X13" s="37"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
-      <c r="B14" s="136"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="47"/>
       <c r="D14" s="34"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="138"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="128"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="137"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="127"/>
       <c r="M14" s="56">
         <v>14</v>
       </c>
       <c r="N14" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="115"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="138"/>
       <c r="R14" s="53"/>
       <c r="S14" s="31"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="139"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="129"/>
       <c r="W14" s="59"/>
       <c r="X14" s="37"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="136"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="47"/>
       <c r="D15" s="34"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="138"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="128"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="137"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="127"/>
       <c r="M15" s="48"/>
       <c r="N15" s="35"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="115"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="138"/>
       <c r="R15" s="53"/>
       <c r="S15" s="31"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="139"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="129"/>
       <c r="W15" s="59"/>
       <c r="X15" s="37"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
-      <c r="B16" s="136"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="47"/>
       <c r="D16" s="34"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="138"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="128"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="137"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="127"/>
       <c r="M16" s="48"/>
       <c r="N16" s="35"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="116"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="139"/>
       <c r="R16" s="53"/>
       <c r="S16" s="31"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="139"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="129"/>
       <c r="W16" s="59"/>
       <c r="X16" s="37"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
-      <c r="B17" s="136"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="47"/>
       <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="136"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="47"/>
       <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
-      <c r="B19" s="136"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="51"/>
       <c r="D19" s="42"/>
-      <c r="F19" s="133" t="s">
+      <c r="F19" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="133" t="s">
+      <c r="G19" s="123" t="s">
         <v>158</v>
       </c>
       <c r="H19" s="61">
@@ -6631,10 +6636,10 @@
       <c r="I19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="127" t="s">
+      <c r="K19" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="120" t="s">
+      <c r="L19" s="143" t="s">
         <v>157</v>
       </c>
       <c r="M19" s="60">
@@ -6643,10 +6648,10 @@
       <c r="N19" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="113" t="s">
+      <c r="P19" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="117" t="s">
+      <c r="Q19" s="140" t="s">
         <v>151</v>
       </c>
       <c r="R19" s="58">
@@ -6655,10 +6660,10 @@
       <c r="S19" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="121" t="s">
+      <c r="U19" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="128" t="s">
+      <c r="V19" s="118" t="s">
         <v>160</v>
       </c>
       <c r="W19" s="63">
@@ -6669,36 +6674,36 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
-      <c r="B20" s="136"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="47"/>
       <c r="D20" s="34"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
       <c r="H20" s="61">
         <v>2</v>
       </c>
       <c r="I20" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="K20" s="127"/>
-      <c r="L20" s="120"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="143"/>
       <c r="M20" s="60">
         <v>2</v>
       </c>
       <c r="N20" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="118"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="141"/>
       <c r="R20" s="58">
         <v>2</v>
       </c>
       <c r="S20" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="U20" s="121"/>
-      <c r="V20" s="128"/>
+      <c r="U20" s="144"/>
+      <c r="V20" s="118"/>
       <c r="W20" s="63">
         <v>2</v>
       </c>
@@ -6707,216 +6712,216 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="129"/>
-      <c r="B21" s="136"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="47"/>
       <c r="D21" s="34"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
       <c r="H21" s="61">
         <v>3</v>
       </c>
       <c r="I21" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="K21" s="127"/>
-      <c r="L21" s="120"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="143"/>
       <c r="M21" s="60">
         <v>3</v>
       </c>
       <c r="N21" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="118"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="141"/>
       <c r="R21" s="58">
         <v>3</v>
       </c>
       <c r="S21" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="U21" s="121"/>
-      <c r="V21" s="128"/>
+      <c r="U21" s="144"/>
+      <c r="V21" s="118"/>
       <c r="W21" s="63"/>
       <c r="X21" s="39"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="129"/>
-      <c r="B22" s="136"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="47"/>
       <c r="D22" s="34"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
       <c r="H22" s="61">
         <v>4</v>
       </c>
       <c r="I22" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="127"/>
-      <c r="L22" s="120"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="143"/>
       <c r="M22" s="60">
         <v>4</v>
       </c>
       <c r="N22" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="118"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="141"/>
       <c r="R22" s="58">
         <v>4</v>
       </c>
       <c r="S22" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="U22" s="121"/>
-      <c r="V22" s="128"/>
+      <c r="U22" s="144"/>
+      <c r="V22" s="118"/>
       <c r="W22" s="63"/>
       <c r="X22" s="39"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="129"/>
-      <c r="B23" s="136"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="47"/>
       <c r="D23" s="34"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
       <c r="H23" s="61">
         <v>5</v>
       </c>
       <c r="I23" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="K23" s="127"/>
-      <c r="L23" s="120"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="143"/>
       <c r="M23" s="50"/>
       <c r="N23" s="30"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="118"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="141"/>
       <c r="R23" s="58">
         <v>5</v>
       </c>
       <c r="S23" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="U23" s="121"/>
-      <c r="V23" s="128"/>
+      <c r="U23" s="144"/>
+      <c r="V23" s="118"/>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="129"/>
-      <c r="B24" s="136"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="47"/>
       <c r="D24" s="34"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
       <c r="H24" s="61">
         <v>6</v>
       </c>
       <c r="I24" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="K24" s="127"/>
-      <c r="L24" s="120"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="143"/>
       <c r="M24" s="50"/>
       <c r="N24" s="30"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="118"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="141"/>
       <c r="R24" s="49"/>
       <c r="S24" s="32"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="128"/>
+      <c r="U24" s="144"/>
+      <c r="V24" s="118"/>
       <c r="W24" s="39"/>
       <c r="X24" s="39"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="129"/>
-      <c r="B25" s="136"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="47"/>
       <c r="D25" s="34"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
       <c r="H25" s="61">
         <v>7</v>
       </c>
       <c r="I25" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="K25" s="127"/>
-      <c r="L25" s="120"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="143"/>
       <c r="M25" s="50"/>
       <c r="N25" s="30"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="118"/>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="141"/>
       <c r="R25" s="49"/>
       <c r="S25" s="32"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="128"/>
+      <c r="U25" s="144"/>
+      <c r="V25" s="118"/>
       <c r="W25" s="39"/>
       <c r="X25" s="39"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="129"/>
-      <c r="B26" s="136"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="47"/>
       <c r="D26" s="34"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
       <c r="H26" s="61">
         <v>8</v>
       </c>
       <c r="I26" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="127"/>
-      <c r="L26" s="120"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="143"/>
       <c r="M26" s="50"/>
       <c r="N26" s="30"/>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="119"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="142"/>
       <c r="R26" s="49"/>
       <c r="S26" s="32"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="128"/>
+      <c r="U26" s="144"/>
+      <c r="V26" s="118"/>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="129"/>
-      <c r="B27" s="136"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="47"/>
       <c r="D27" s="34"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
       <c r="H27" s="61"/>
       <c r="I27" s="33"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="120"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="143"/>
       <c r="M27" s="50"/>
       <c r="N27" s="30"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="128"/>
+      <c r="U27" s="144"/>
+      <c r="V27" s="118"/>
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="129"/>
-      <c r="B28" s="136"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="51"/>
       <c r="D28" s="42"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
       <c r="H28" s="61"/>
       <c r="I28" s="33"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="120"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="143"/>
       <c r="M28" s="50"/>
       <c r="N28" s="30"/>
-      <c r="P28" s="122" t="s">
+      <c r="P28" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="Q28" s="123" t="s">
+      <c r="Q28" s="146" t="s">
         <v>159</v>
       </c>
       <c r="R28" s="62">
@@ -6925,26 +6930,26 @@
       <c r="S28" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="U28" s="121"/>
-      <c r="V28" s="128"/>
+      <c r="U28" s="144"/>
+      <c r="V28" s="118"/>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="129"/>
-      <c r="B29" s="136"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="47"/>
       <c r="D29" s="34"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
       <c r="H29" s="61"/>
       <c r="I29" s="33"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="120"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="143"/>
       <c r="M29" s="50"/>
       <c r="N29" s="30"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="123"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="146"/>
       <c r="R29" s="62">
         <v>2</v>
       </c>
@@ -6953,20 +6958,20 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="129"/>
-      <c r="B30" s="136"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="47"/>
       <c r="D30" s="34"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
       <c r="H30" s="61"/>
       <c r="I30" s="33"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="120"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="143"/>
       <c r="M30" s="50"/>
       <c r="N30" s="30"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="123"/>
+      <c r="P30" s="145"/>
+      <c r="Q30" s="146"/>
       <c r="R30" s="62">
         <v>3</v>
       </c>
@@ -6975,20 +6980,20 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="129"/>
-      <c r="B31" s="136"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="47"/>
       <c r="D31" s="34"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
       <c r="H31" s="61"/>
       <c r="I31" s="33"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="120"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="143"/>
       <c r="M31" s="50"/>
       <c r="N31" s="30"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="123"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="146"/>
       <c r="R31" s="62">
         <v>4</v>
       </c>
@@ -6997,74 +7002,80 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="129"/>
-      <c r="B32" s="136"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="126"/>
       <c r="C32" s="47"/>
       <c r="D32" s="34"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
       <c r="H32" s="61"/>
       <c r="I32" s="33"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="120"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="143"/>
       <c r="M32" s="50"/>
       <c r="N32" s="30"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="123"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="146"/>
       <c r="R32" s="64"/>
       <c r="S32" s="38"/>
     </row>
     <row r="33" spans="6:28" x14ac:dyDescent="0.25">
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
       <c r="H33" s="61"/>
       <c r="I33" s="33"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="120"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="143"/>
       <c r="M33" s="50"/>
       <c r="N33" s="30"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="123"/>
+      <c r="P33" s="145"/>
+      <c r="Q33" s="146"/>
       <c r="R33" s="64"/>
       <c r="S33" s="38"/>
-      <c r="U33" s="143" t="s">
+      <c r="U33" s="133" t="s">
         <v>161</v>
       </c>
-      <c r="V33" s="144"/>
-      <c r="W33" s="144"/>
-      <c r="X33" s="144"/>
-      <c r="Y33" s="144"/>
-      <c r="Z33" s="144"/>
-      <c r="AA33" s="144"/>
-      <c r="AB33" s="145"/>
+      <c r="V33" s="134"/>
+      <c r="W33" s="134"/>
+      <c r="X33" s="134"/>
+      <c r="Y33" s="134"/>
+      <c r="Z33" s="134"/>
+      <c r="AA33" s="134"/>
+      <c r="AB33" s="135"/>
     </row>
     <row r="34" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
-      <c r="K34" s="127"/>
-      <c r="L34" s="120"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="143"/>
       <c r="M34" s="50"/>
       <c r="N34" s="30"/>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="123"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="146"/>
       <c r="R34" s="64"/>
       <c r="S34" s="38"/>
-      <c r="U34" s="140" t="s">
+      <c r="U34" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="V34" s="141"/>
-      <c r="W34" s="141"/>
-      <c r="X34" s="141"/>
-      <c r="Y34" s="141"/>
-      <c r="Z34" s="141"/>
-      <c r="AA34" s="141"/>
-      <c r="AB34" s="142"/>
+      <c r="V34" s="131"/>
+      <c r="W34" s="131"/>
+      <c r="X34" s="131"/>
+      <c r="Y34" s="131"/>
+      <c r="Z34" s="131"/>
+      <c r="AA34" s="131"/>
+      <c r="AB34" s="132"/>
     </row>
     <row r="44" spans="6:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P1:P16"/>
+    <mergeCell ref="Q19:Q26"/>
+    <mergeCell ref="L19:L34"/>
+    <mergeCell ref="U19:U28"/>
+    <mergeCell ref="P28:P34"/>
+    <mergeCell ref="Q28:Q34"/>
     <mergeCell ref="K19:K34"/>
     <mergeCell ref="V19:V28"/>
     <mergeCell ref="A1:A32"/>
@@ -7081,12 +7092,6 @@
     <mergeCell ref="G19:G34"/>
     <mergeCell ref="P19:P26"/>
     <mergeCell ref="Q1:Q16"/>
-    <mergeCell ref="Q19:Q26"/>
-    <mergeCell ref="L19:L34"/>
-    <mergeCell ref="U19:U28"/>
-    <mergeCell ref="P28:P34"/>
-    <mergeCell ref="Q28:Q34"/>
-    <mergeCell ref="P1:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
